--- a/Group 4 Test Cases.xlsx
+++ b/Group 4 Test Cases.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
   <si>
     <t>User Test Cases</t>
   </si>
@@ -252,13 +252,37 @@
   </si>
   <si>
     <t>Item is not checked out to user</t>
+  </si>
+  <si>
+    <t>Item RenewalTest Cases</t>
+  </si>
+  <si>
+    <t>Renew Item Validation</t>
+  </si>
+  <si>
+    <t>Find the name of a non-overdue book to return and click the "Renew Item" button</t>
+  </si>
+  <si>
+    <t>No More Renewals Validation</t>
+  </si>
+  <si>
+    <t>Find a book the user has already renewed</t>
+  </si>
+  <si>
+    <t>Item found</t>
+  </si>
+  <si>
+    <t>Verify the "Renew Item" button is disabled.</t>
+  </si>
+  <si>
+    <t>Button disabled, user unable to renew item.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -278,13 +302,42 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Inconsolata"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -337,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -352,18 +405,27 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,9 +718,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="str">
-        <f>if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS",D11="PASS"),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
+        <f>if(or(ISBLANK(D4),ISBLANK(D5),isblank(D6),isblank(D7),isblank(D8),isblank(D9),isblank(D10),isblank(D11)),"incomplete",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS",D10="PASS",D11="PASS"),"PASS","FAIL"))</f>
+        <v>incomplete</v>
+      </c>
+      <c r="H3" s="9"/>
     </row>
     <row r="4">
       <c r="A4" s="4">
@@ -670,7 +733,8 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -684,9 +748,7 @@
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="6">
       <c r="A6" s="4">
@@ -698,9 +760,7 @@
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7">
       <c r="A7" s="4">
@@ -712,9 +772,7 @@
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="8">
       <c r="A8" s="4">
@@ -726,9 +784,7 @@
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9">
       <c r="A9" s="4">
@@ -740,9 +796,7 @@
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D9" s="10"/>
     </row>
     <row r="10">
       <c r="A10" s="4">
@@ -754,9 +808,7 @@
       <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D10" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="4">
@@ -768,21 +820,19 @@
       <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D11" s="10"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="8" t="str">
-        <f>if(AND(D14="PASS",D15="PASS",D16="PASS",D17="PASS",D18="PASS",D19="PASS",D20="PASS",D21="PASS"),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <f>if(or(ISBLANK(D14),ISBLANK(D15),isblank(D16),isblank(D17),isblank(D18),isblank(D19),isblank(D20),isblank(D21)),"incomplete",if(AND(D14="PASS",D15="PASS",D16="PASS",D17="PASS",D18="PASS",D19="PASS",D20="PASS",D21="PASS"),"PASS","FAIL"))</f>
+        <v>incomplete</v>
       </c>
     </row>
     <row r="14">
@@ -795,9 +845,8 @@
       <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" s="4">
@@ -809,9 +858,7 @@
       <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D15" s="10"/>
     </row>
     <row r="16">
       <c r="A16" s="4">
@@ -823,9 +870,7 @@
       <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D16" s="10"/>
     </row>
     <row r="17">
       <c r="A17" s="4">
@@ -837,9 +882,7 @@
       <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D17" s="10"/>
     </row>
     <row r="18">
       <c r="A18" s="4">
@@ -851,9 +894,7 @@
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D18" s="10"/>
     </row>
     <row r="19">
       <c r="A19" s="4">
@@ -865,9 +906,7 @@
       <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D19" s="10"/>
     </row>
     <row r="20">
       <c r="A20" s="4">
@@ -879,9 +918,7 @@
       <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D20" s="10"/>
     </row>
     <row r="21">
       <c r="A21" s="4">
@@ -893,9 +930,7 @@
       <c r="C21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D21" s="10"/>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
@@ -906,8 +941,8 @@
         <v>2</v>
       </c>
       <c r="D23" s="8" t="str">
-        <f>if(AND(D24="PASS",D25="PASS"),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <f>if(or(ISBLANK(D24),ISBLANK(D25)),"incomplete",if(AND(D24="PASS",D25="PASS"),"PASS","FAIL"))</f>
+        <v>incomplete</v>
       </c>
     </row>
     <row r="24">
@@ -920,9 +955,7 @@
       <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D24" s="10"/>
     </row>
     <row r="25">
       <c r="A25" s="4">
@@ -934,15 +967,13 @@
       <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D11 D13:D21 D23:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -955,7 +986,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D3:D11 D13:D21 D23:D25">
+    <dataValidation type="list" allowBlank="1" sqref="D4:D11 D14:D21 D24:D25">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -976,7 +1007,7 @@
     <col customWidth="1" min="1" max="1" width="6.13"/>
     <col customWidth="1" min="2" max="2" width="36.63"/>
     <col customWidth="1" min="3" max="3" width="46.0"/>
-    <col customWidth="1" min="4" max="4" width="7.88"/>
+    <col customWidth="1" min="4" max="4" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1000,8 +1031,8 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="str">
-        <f>if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS"),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <f>if(or(ISBLANK(D4),ISBLANK(D5),isblank(D6),isblank(D7),isblank(D8),isblank(D9)),"incomplete",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS"),"PASS","FAIL"))</f>
+        <v>incomplete</v>
       </c>
     </row>
     <row r="4">
@@ -1014,9 +1045,7 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" s="4">
@@ -1028,9 +1057,7 @@
       <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="6">
       <c r="A6" s="4">
@@ -1042,9 +1069,7 @@
       <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7">
       <c r="A7" s="4">
@@ -1056,9 +1081,7 @@
       <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="8">
       <c r="A8" s="4">
@@ -1070,9 +1093,7 @@
       <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9">
       <c r="A9" s="4">
@@ -1084,9 +1105,7 @@
       <c r="C9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D9" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
@@ -1097,8 +1116,8 @@
         <v>2</v>
       </c>
       <c r="D11" s="8" t="str">
-        <f>if(AND(D12="PASS",D13="PASS",D14="PASS",D15="PASS",D16="PASS",D17="PASS"),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <f>if(or(ISBLANK(D12),ISBLANK(D13),isblank(D14),isblank(D15),isblank(D16),isblank(D17),isblank(D18),isblank(D19),isblank(D20)),"incomplete",if(AND(D12="PASS",D13="PASS",D14="PASS",D15="PASS",D16="PASS",D17="PASS",D18="PASS",D19="PASS",D20="PASS"),"PASS","FAIL"))</f>
+        <v>incomplete</v>
       </c>
     </row>
     <row r="12">
@@ -1111,9 +1130,7 @@
       <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D12" s="10"/>
     </row>
     <row r="13">
       <c r="A13" s="4">
@@ -1125,9 +1142,7 @@
       <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D13" s="10"/>
     </row>
     <row r="14">
       <c r="A14" s="4">
@@ -1139,9 +1154,7 @@
       <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D14" s="10"/>
     </row>
     <row r="15">
       <c r="A15" s="4">
@@ -1153,9 +1166,7 @@
       <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D15" s="10"/>
     </row>
     <row r="16">
       <c r="A16" s="4">
@@ -1167,9 +1178,7 @@
       <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D16" s="10"/>
     </row>
     <row r="17">
       <c r="A17" s="4">
@@ -1181,9 +1190,7 @@
       <c r="C17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D17" s="10"/>
     </row>
     <row r="18">
       <c r="A18" s="4">
@@ -1195,9 +1202,7 @@
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D18" s="10"/>
     </row>
     <row r="19">
       <c r="A19" s="4">
@@ -1209,9 +1214,7 @@
       <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D19" s="10"/>
     </row>
     <row r="20">
       <c r="A20" s="4">
@@ -1223,15 +1226,13 @@
       <c r="C20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D20" s="10"/>
     </row>
     <row r="21">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
@@ -1242,8 +1243,8 @@
         <v>2</v>
       </c>
       <c r="D22" s="8" t="str">
-        <f>if(AND(D23="PASS",D24="PASS",D25="PASS"),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <f>if(or(ISBLANK(D23),ISBLANK(D24),isblank(D25)),"incomplete",if(AND(D23="PASS",D24="PASS",D25="PASS"),"PASS","FAIL"))</f>
+        <v>incomplete</v>
       </c>
     </row>
     <row r="23">
@@ -1256,9 +1257,7 @@
       <c r="C23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D23" s="10"/>
     </row>
     <row r="24">
       <c r="A24" s="4">
@@ -1270,9 +1269,7 @@
       <c r="C24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D24" s="10"/>
     </row>
     <row r="25">
       <c r="A25" s="4">
@@ -1284,16 +1281,14 @@
       <c r="C25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D9 D11:D20 D22:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -1306,7 +1301,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D3:D9 D11:D20 D22:D25">
+    <dataValidation type="list" allowBlank="1" sqref="D4:D9 D12:D20 D23:D25">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1327,7 +1322,7 @@
     <col customWidth="1" min="1" max="1" width="5.13"/>
     <col customWidth="1" min="2" max="2" width="64.5"/>
     <col customWidth="1" min="3" max="3" width="46.0"/>
-    <col customWidth="1" min="4" max="4" width="7.88"/>
+    <col customWidth="1" min="4" max="4" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1351,8 +1346,8 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="str">
-        <f>if(AND(D4="PASS",D5="PASS"),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <f>if(or(ISBLANK(D4),ISBLANK(D5)),"incomplete",if(AND(D4="PASS",D5="PASS"),"PASS","FAIL"))</f>
+        <v>incomplete</v>
       </c>
     </row>
     <row r="4">
@@ -1365,9 +1360,7 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" s="4">
@@ -1379,9 +1372,7 @@
       <c r="C5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
@@ -1392,8 +1383,8 @@
         <v>2</v>
       </c>
       <c r="D7" s="8" t="str">
-        <f>if(AND(D8="PASS",D9="PASS",D10="PASS",D11="PASS"),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <f>if(or(ISBLANK(D8),ISBLANK(D9),isblank(D10),isblank(D11)),"incomplete",if(AND(D8="PASS",D9="PASS",D10="PASS",D11="PASS"),"PASS","FAIL"))</f>
+        <v>incomplete</v>
       </c>
     </row>
     <row r="8">
@@ -1406,9 +1397,7 @@
       <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9">
       <c r="A9" s="4">
@@ -1420,9 +1409,7 @@
       <c r="C9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D9" s="10"/>
     </row>
     <row r="10">
       <c r="A10" s="4">
@@ -1434,9 +1421,7 @@
       <c r="C10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D10" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="4">
@@ -1448,9 +1433,7 @@
       <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D11" s="10"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
@@ -1461,8 +1444,8 @@
         <v>2</v>
       </c>
       <c r="D13" s="8" t="str">
-        <f>if(AND(D14="PASS",D15="PASS",D16="PASS"),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <f>if(or(ISBLANK(D14),ISBLANK(D15),isblank(D16)),"incomplete",if(AND(D14="PASS",D15="PASS",D16="PASS"),"PASS","FAIL"))</f>
+        <v>incomplete</v>
       </c>
     </row>
     <row r="14">
@@ -1475,9 +1458,7 @@
       <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D14" s="10"/>
     </row>
     <row r="15">
       <c r="A15" s="4">
@@ -1489,9 +1470,7 @@
       <c r="C15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D15" s="10"/>
     </row>
     <row r="16">
       <c r="A16" s="4">
@@ -1503,14 +1482,12 @@
       <c r="C16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A13:B13"/>
   </mergeCells>
@@ -1525,7 +1502,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D3:D5 D7:D11 D13:D16">
+    <dataValidation type="list" allowBlank="1" sqref="D4:D5 D8:D11 D14:D16">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1546,7 +1523,7 @@
     <col customWidth="1" min="1" max="1" width="5.0"/>
     <col customWidth="1" min="2" max="2" width="45.88"/>
     <col customWidth="1" min="3" max="3" width="46.0"/>
-    <col customWidth="1" min="4" max="4" width="7.88"/>
+    <col customWidth="1" min="4" max="4" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1570,8 +1547,8 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="str">
-        <f>if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",#REF!="PASS",#REF!="PASS"),"PASS","FAIL")</f>
-        <v>#REF!</v>
+        <f>if(or(ISBLANK(D4),ISBLANK(D5),isblank(D6),isblank(D7)),"incomplete",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS"),"PASS","FAIL"))</f>
+        <v>incomplete</v>
       </c>
     </row>
     <row r="4">
@@ -1584,9 +1561,7 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" s="4">
@@ -1598,9 +1573,7 @@
       <c r="C5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="6">
       <c r="A6" s="4">
@@ -1612,9 +1585,7 @@
       <c r="C6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7">
       <c r="A7" s="4">
@@ -1626,9 +1597,7 @@
       <c r="C7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
@@ -1639,8 +1608,8 @@
         <v>2</v>
       </c>
       <c r="D9" s="8" t="str">
-        <f>if(AND(D10="PASS",D11="PASS",D12="PASS",#REF!="PASS",#REF!="PASS",#REF!="PASS"),"PASS","FAIL")</f>
-        <v>#REF!</v>
+        <f>if(or(ISBLANK(D10),ISBLANK(D11),isblank(D12)),"incomplete",if(AND(D10="PASS",D11="PASS",D12="PASS"),"PASS","FAIL"))</f>
+        <v>incomplete</v>
       </c>
     </row>
     <row r="10">
@@ -1653,9 +1622,7 @@
       <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D10" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="4">
@@ -1667,9 +1634,7 @@
       <c r="C11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D11" s="10"/>
     </row>
     <row r="12">
       <c r="A12" s="4">
@@ -1681,9 +1646,7 @@
       <c r="C12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D12" s="10"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
@@ -1694,8 +1657,8 @@
         <v>2</v>
       </c>
       <c r="D14" s="8" t="str">
-        <f>if(AND(D15="PASS",D16="PASS",D17="PASS",D18="PASS"),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <f>if(or(ISBLANK(D15),ISBLANK(D16),isblank(D17),isblank(D18)),"incomplete",if(AND(D15="PASS",D16="PASS",D17="PASS",D18="PASS"),"PASS","FAIL"))</f>
+        <v>incomplete</v>
       </c>
     </row>
     <row r="15">
@@ -1708,9 +1671,7 @@
       <c r="C15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D15" s="10"/>
     </row>
     <row r="16">
       <c r="A16" s="4">
@@ -1722,9 +1683,7 @@
       <c r="C16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D16" s="10"/>
     </row>
     <row r="17">
       <c r="A17" s="4">
@@ -1736,9 +1695,7 @@
       <c r="C17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D17" s="10"/>
     </row>
     <row r="18">
       <c r="A18" s="4">
@@ -1750,15 +1707,13 @@
       <c r="C18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D18" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A14:B14"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D7 D9:D12 D14:D18">
@@ -1772,7 +1727,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D3:D7 D9:D12 D14:D18">
+    <dataValidation type="list" allowBlank="1" sqref="D4:D7 D10:D12 D15:D18">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1789,7 +1744,127 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="5.13"/>
+    <col customWidth="1" min="2" max="2" width="60.88"/>
+    <col customWidth="1" min="3" max="3" width="46.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f>if(or(ISBLANK(D4),ISBLANK(D5)),"incomplete",if(AND(D4="PASS",D5="PASS"),"PASS","FAIL"))</f>
+        <v>incomplete</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <f>if(or(ISBLANK(D8),ISBLANK(D9),isblank(D10)),"incomplete",if(AND(D8="PASS",D9="PASS",D10="PASS"),"PASS","FAIL"))</f>
+        <v>incomplete</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D5 D7:D10">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5 D7:D10">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="D4:D5 D8:D10">
+      <formula1>"PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/Group 4 Test Cases.xlsx
+++ b/Group 4 Test Cases.xlsx
@@ -9,8 +9,6 @@
     <sheet state="visible" name="RequestTestCases" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="RenewTestCases" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="OverDueTestCases" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Sheet7" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Sheet8" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="99">
   <si>
     <t>User Test Cases</t>
   </si>
@@ -35,111 +33,111 @@
     <t>User ID entered</t>
   </si>
   <si>
+    <t>Verify user has a full name on file</t>
+  </si>
+  <si>
+    <t>User name displayed</t>
+  </si>
+  <si>
+    <t>Verify user has an address on file</t>
+  </si>
+  <si>
+    <t>User address displayed</t>
+  </si>
+  <si>
+    <t>Verify user has a phone number on file</t>
+  </si>
+  <si>
+    <t>User phone number displayed</t>
+  </si>
+  <si>
+    <t>Verify user has an age in the system</t>
+  </si>
+  <si>
+    <t>User age displayed</t>
+  </si>
+  <si>
+    <t>Verify books checked out by the user</t>
+  </si>
+  <si>
+    <t>List of checked out book information displayed</t>
+  </si>
+  <si>
+    <t>Verify requests by the user</t>
+  </si>
+  <si>
+    <t>List of requested items displayed</t>
+  </si>
+  <si>
+    <t>Verify overdue fees for user</t>
+  </si>
+  <si>
+    <t>Any overdue fees for user are displayed</t>
+  </si>
+  <si>
+    <t>Child User Data Validation</t>
+  </si>
+  <si>
+    <t>List of checked out book information displayed, no more than 5</t>
+  </si>
+  <si>
+    <t>Invalid user validation</t>
+  </si>
+  <si>
+    <t>Enter an invalid library card number</t>
+  </si>
+  <si>
+    <t>Information entered</t>
+  </si>
+  <si>
+    <t>Verify user not in system</t>
+  </si>
+  <si>
+    <t>"User not found" message displayed</t>
+  </si>
+  <si>
+    <t>Item Checkout Test Cases</t>
+  </si>
+  <si>
+    <t>Adult Checkout Validation</t>
+  </si>
+  <si>
+    <t>Enter name of book to check out</t>
+  </si>
+  <si>
+    <t>Item checked out with 3 week return date</t>
+  </si>
+  <si>
+    <t>Enter name of best seller to check out</t>
+  </si>
+  <si>
+    <t>Item checked out with 2 week return date</t>
+  </si>
+  <si>
+    <t>Enter name of audio/visual material to check out</t>
+  </si>
+  <si>
+    <t>Enter name of reference book to check out</t>
+  </si>
+  <si>
+    <t>"Unable to check out item" message displayed</t>
+  </si>
+  <si>
+    <t>Enter name of magazine to check out</t>
+  </si>
+  <si>
+    <t>Child Checkout Validation</t>
+  </si>
+  <si>
+    <t>"Maximum number of items checked out" message displayed</t>
+  </si>
+  <si>
+    <t>Invalid Item Checkout Validation</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>Verify user has a full name on file</t>
-  </si>
-  <si>
-    <t>User name displayed</t>
-  </si>
-  <si>
-    <t>Verify user has an address on file</t>
-  </si>
-  <si>
-    <t>User address displayed</t>
-  </si>
-  <si>
-    <t>Verify user has a phone number on file</t>
-  </si>
-  <si>
-    <t>User phone number displayed</t>
-  </si>
-  <si>
-    <t>Verify user has an age in the system</t>
-  </si>
-  <si>
-    <t>User age displayed</t>
-  </si>
-  <si>
-    <t>Verify books checked out by the user</t>
-  </si>
-  <si>
-    <t>List of checked out book information displayed</t>
-  </si>
-  <si>
-    <t>Verify requests by the user</t>
-  </si>
-  <si>
-    <t>List of requested items displayed</t>
-  </si>
-  <si>
-    <t>Verify overdue fees for user</t>
-  </si>
-  <si>
-    <t>Any overdue fees for user are displayed</t>
-  </si>
-  <si>
-    <t>Child User Data Validation</t>
-  </si>
-  <si>
-    <t>List of checked out book information displayed, no more than 5</t>
-  </si>
-  <si>
-    <t>Invalid user validation</t>
-  </si>
-  <si>
-    <t>Enter an invalid library card number</t>
-  </si>
-  <si>
-    <t>Information entered</t>
-  </si>
-  <si>
-    <t>Verify user not in system</t>
-  </si>
-  <si>
-    <t>"User not found" message displayed</t>
-  </si>
-  <si>
-    <t>Item Checkout Test Cases</t>
-  </si>
-  <si>
-    <t>Adult Checkout Validation</t>
-  </si>
-  <si>
-    <t>Enter name of book to check out</t>
-  </si>
-  <si>
-    <t>Item checked out with 3 week return date</t>
-  </si>
-  <si>
-    <t>Enter name of best seller to check out</t>
-  </si>
-  <si>
-    <t>Item checked out with 2 week return date</t>
-  </si>
-  <si>
-    <t>Enter name of audio/visual material to check out</t>
-  </si>
-  <si>
-    <t>Enter name of reference book to check out</t>
-  </si>
-  <si>
-    <t>"Unable to check out item" message displayed</t>
-  </si>
-  <si>
-    <t>Enter name of magazine to check out</t>
-  </si>
-  <si>
-    <t>Child Checkout Validation</t>
-  </si>
-  <si>
-    <t>"Maximum number of items checked out" message displayed</t>
-  </si>
-  <si>
-    <t>Invalid Item Checkout Validation</t>
-  </si>
-  <si>
     <t>Enter invalid name of an item</t>
   </si>
   <si>
@@ -191,7 +189,7 @@
     <t>Find the name of a book to return with a request on it and click the "return item" button</t>
   </si>
   <si>
-    <t>Verify request is till open for other user requesting item.</t>
+    <t>Verify request is still open for other user requesting item.</t>
   </si>
   <si>
     <t>Item remains in requested state</t>
@@ -215,10 +213,13 @@
     <t>User given option to reserve book</t>
   </si>
   <si>
-    <t>Select "Yes" to request the item</t>
-  </si>
-  <si>
-    <t>Item placed on user requested list</t>
+    <t>Search for the requested item</t>
+  </si>
+  <si>
+    <t>Item located</t>
+  </si>
+  <si>
+    <t>Verify item has been set to requested</t>
   </si>
   <si>
     <t>Requested Item Checkout Validation</t>
@@ -276,13 +277,52 @@
   </si>
   <si>
     <t>Button disabled, user unable to renew item.</t>
+  </si>
+  <si>
+    <t>or notification that item has already been renewed</t>
+  </si>
+  <si>
+    <t>Overdue Item Test Cases</t>
+  </si>
+  <si>
+    <t>Slightly overdue item</t>
+  </si>
+  <si>
+    <t>Enter library card information for a user with a slightly overdue item</t>
+  </si>
+  <si>
+    <t>Verify the return date, calculate the overdue fees at $0.10 per day past due date</t>
+  </si>
+  <si>
+    <t>Overdue fee calculated</t>
+  </si>
+  <si>
+    <t>Verify the overdue fee is displayed correctly</t>
+  </si>
+  <si>
+    <t>Overdue fee correct in system</t>
+  </si>
+  <si>
+    <t>Drasticly overdue item</t>
+  </si>
+  <si>
+    <t>Enter library card information for a user with a very overdue item</t>
+  </si>
+  <si>
+    <t>Verify the overdue fee does not exceed the item value</t>
+  </si>
+  <si>
+    <t>Overdue fee not over item value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -325,8 +365,14 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +383,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF980000"/>
+        <bgColor rgb="FF980000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -390,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -416,6 +474,11 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -424,14 +487,44 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <font/>
       <fill>
@@ -448,6 +541,16 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
         </patternFill>
       </fill>
       <border/>
@@ -477,14 +580,6 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -734,99 +829,113 @@
         <v>4</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" s="4">
         <v>2.0</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="10"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" s="4">
         <v>3.0</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" s="4">
         <v>4.0</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" s="10"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8">
       <c r="A8" s="4">
         <v>5.0</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="D8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9">
       <c r="A9" s="4">
         <v>6.0</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D9" s="10"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10">
       <c r="A10" s="4">
         <v>7.0</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11">
       <c r="A11" s="4">
         <v>8.0</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12">
+      <c r="H12" s="13"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7" t="s">
         <v>2</v>
       </c>
@@ -846,17 +955,17 @@
         <v>4</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15">
       <c r="A15" s="4">
         <v>2.0</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="D15" s="10"/>
     </row>
@@ -865,10 +974,10 @@
         <v>3.0</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="D16" s="10"/>
     </row>
@@ -877,10 +986,10 @@
         <v>4.0</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D17" s="10"/>
     </row>
@@ -889,10 +998,10 @@
         <v>5.0</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D18" s="10"/>
     </row>
@@ -901,10 +1010,10 @@
         <v>6.0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="10"/>
     </row>
@@ -913,10 +1022,10 @@
         <v>7.0</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D20" s="10"/>
     </row>
@@ -925,16 +1034,16 @@
         <v>8.0</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D21" s="10"/>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
@@ -950,10 +1059,10 @@
         <v>1.0</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D24" s="10"/>
     </row>
@@ -962,10 +1071,10 @@
         <v>2.0</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D25" s="10"/>
     </row>
@@ -1012,7 +1121,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1024,7 +1133,7 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="7" t="s">
@@ -1052,10 +1161,10 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D5" s="10"/>
     </row>
@@ -1064,10 +1173,10 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D6" s="10"/>
     </row>
@@ -1076,10 +1185,10 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10"/>
     </row>
@@ -1088,10 +1197,10 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D8" s="10"/>
     </row>
@@ -1100,16 +1209,16 @@
         <v>6.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="7" t="s">
@@ -1137,10 +1246,10 @@
         <v>2.0</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D13" s="10"/>
     </row>
@@ -1149,10 +1258,10 @@
         <v>3.0</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D14" s="10"/>
     </row>
@@ -1161,10 +1270,10 @@
         <v>4.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="10"/>
     </row>
@@ -1173,10 +1282,10 @@
         <v>5.0</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D16" s="10"/>
     </row>
@@ -1185,10 +1294,10 @@
         <v>6.0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="10"/>
     </row>
@@ -1197,10 +1306,10 @@
         <v>7.0</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D18" s="10"/>
     </row>
@@ -1209,10 +1318,10 @@
         <v>8.0</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D19" s="10"/>
     </row>
@@ -1221,22 +1330,22 @@
         <v>9.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="10"/>
     </row>
     <row r="21">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
@@ -1244,7 +1353,7 @@
       </c>
       <c r="D22" s="8" t="str">
         <f>if(or(ISBLANK(D23),ISBLANK(D24),isblank(D25)),"incomplete",if(AND(D23="PASS",D24="PASS",D25="PASS"),"PASS","FAIL"))</f>
-        <v>incomplete</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="23">
@@ -1257,7 +1366,9 @@
       <c r="C23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="4">
@@ -1269,7 +1380,9 @@
       <c r="C24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4">
@@ -1281,7 +1394,9 @@
       <c r="C25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1436,11 +1551,11 @@
       <c r="D11" s="10"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="8" t="str">
@@ -1449,37 +1564,37 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="20">
         <v>1.0</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="10"/>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="20">
         <v>2.0</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="10"/>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="20">
         <v>3.0</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="10"/>
@@ -1547,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="str">
-        <f>if(or(ISBLANK(D4),ISBLANK(D5),isblank(D6),isblank(D7)),"incomplete",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS"),"PASS","FAIL"))</f>
+        <f>if(or(ISBLANK(D4),ISBLANK(D5),isblank(D6),isblank(D8)),"incomplete",if(AND(D4="PASS",D5="PASS",D6="PASS",D8="PASS"),"PASS","FAIL"))</f>
         <v>incomplete</v>
       </c>
     </row>
@@ -1599,135 +1714,147 @@
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
+    <row r="8">
+      <c r="A8" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="7" t="s">
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="8" t="str">
-        <f>if(or(ISBLANK(D10),ISBLANK(D11),isblank(D12)),"incomplete",if(AND(D10="PASS",D11="PASS",D12="PASS"),"PASS","FAIL"))</f>
+      <c r="D10" s="8" t="str">
+        <f>if(or(ISBLANK(D11),ISBLANK(D12),isblank(D13)),"incomplete",if(AND(D11="PASS",D12="PASS",D13="PASS"),"PASS","FAIL"))</f>
         <v>incomplete</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4">
+    <row r="11">
+      <c r="A11" s="20">
         <v>1.0</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B11" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4">
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="20">
         <v>2.0</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8" t="str">
+        <f>if(or(ISBLANK(D16),ISBLANK(D17),isblank(D18),isblank(D19)),"incomplete",if(AND(D16="PASS",D17="PASS",D18="PASS",D19="PASS"),"PASS","FAIL"))</f>
+        <v>incomplete</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C16" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4">
+      <c r="C17" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="20">
         <v>3.0</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="8" t="str">
-        <f>if(or(ISBLANK(D15),ISBLANK(D16),isblank(D17),isblank(D18)),"incomplete",if(AND(D15="PASS",D16="PASS",D17="PASS",D18="PASS"),"PASS","FAIL"))</f>
-        <v>incomplete</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B18" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="4">
+      <c r="C18" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="20">
         <v>4.0</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B19" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="C19" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D7 D9:D12 D14:D18">
+  <conditionalFormatting sqref="D3:D8 D10:D13 D15:D19">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D7 D9:D12 D14:D18">
+  <conditionalFormatting sqref="D3:D8 D10:D13 D15:D19">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D4:D7 D10:D12 D15:D18">
+    <dataValidation type="list" allowBlank="1" sqref="D4:D8 D11:D13 D16:D19">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1752,7 +1879,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1760,7 +1887,7 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="7" t="s">
@@ -1787,17 +1914,17 @@
       <c r="A5" s="4">
         <v>2.0</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>80</v>
+      <c r="B5" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="10"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="7" t="s">
@@ -1824,11 +1951,11 @@
       <c r="A9" s="4">
         <v>2.0</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>82</v>
+      <c r="B9" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" s="10"/>
     </row>
@@ -1837,12 +1964,17 @@
         <v>3.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="10"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1878,35 +2010,137 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="6.63"/>
+    <col customWidth="1" min="2" max="2" width="59.88"/>
+    <col customWidth="1" min="3" max="3" width="24.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="24" t="str">
+        <f>if(or(ISBLANK(D4),ISBLANK(D5),isblank(D6)),"incomplete",if(AND(D4="PASS",D5="PASS",D6="PASS"),"PASS","FAIL"))</f>
+        <v>incomplete</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="24" t="str">
+        <f>if(or(ISBLANK(D9),ISBLANK(D10),isblank(D11)),"incomplete",if(AND(D9="PASS",D10="PASS",D11="PASS"),"PASS","FAIL"))</f>
+        <v>incomplete</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D6 D8:D11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D6 D8:D11">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="D4:D6 D9:D11">
+      <formula1>"PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Group 4 Test Cases.xlsx
+++ b/Group 4 Test Cases.xlsx
@@ -6,7 +6,7 @@
     <sheet state="visible" name="Test Case Summary" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="User Test Cases" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Item Checkout Test Cases" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="ReturnItemTestCases" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Return Item Test Cases" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="RequestTestCases" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="RenewTestCases" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="OverDueTestCases" sheetId="7" r:id="rId10"/>
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="153">
   <si>
     <t>Test Case Name</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>Test Status</t>
   </si>
   <si>
     <t>User Test Cases</t>
@@ -121,7 +121,7 @@
     <t>Enter the name of a child user and click "Search"</t>
   </si>
   <si>
-    <t>User's address displayed with a note that it is a child user</t>
+    <t>User's age displayed with (child) delimiter</t>
   </si>
   <si>
     <t>Invalid user validation</t>
@@ -199,10 +199,10 @@
     <t>Child Checkout Validation</t>
   </si>
   <si>
-    <t>Dialog box opens, reporting "Maximum number of items checked out"</t>
-  </si>
-  <si>
-    <t>Verify "Items Rented" text field contains items that were successfully checked out, with a maximum of 5 items</t>
+    <t>Dialog box opens, reporting "Max of items checked out"</t>
+  </si>
+  <si>
+    <t>Verify "Items Checked Out" text field contains items that were successfully checked out, with a maximum of 5 items</t>
   </si>
   <si>
     <t>No more than 5 items checked out by user</t>
@@ -211,6 +211,9 @@
     <t>Invalid Item Checkout Validation</t>
   </si>
   <si>
+    <t>Enter name of an item not in the system and click "Search"</t>
+  </si>
+  <si>
     <t>Item checked out dialog box opens, reporting "Item Not Found"</t>
   </si>
   <si>
@@ -220,46 +223,43 @@
     <t>No new items checked out by user</t>
   </si>
   <si>
-    <t>Item ReturnTest Cases</t>
+    <t>Return Item Test Case</t>
   </si>
   <si>
     <t>Return Item Validation</t>
   </si>
   <si>
-    <t>Enter the name of a user</t>
-  </si>
-  <si>
-    <t>User name entered</t>
-  </si>
-  <si>
-    <t>Find the name of a non-overdue book to return and click the "return item" button</t>
-  </si>
-  <si>
-    <t>Item marked as returned and removed from user checkout list</t>
-  </si>
-  <si>
-    <t>Return Overdue Item Validation</t>
-  </si>
-  <si>
-    <t>Enter library card information for a user</t>
-  </si>
-  <si>
-    <t>User ID entered</t>
-  </si>
-  <si>
-    <t>Find the name of an overdue book to return and click the "return item" button</t>
-  </si>
-  <si>
-    <t>User notifed that item was returned late and late fee assessed</t>
-  </si>
-  <si>
-    <t>Verify the overdue fine of the book is calculated correctly.</t>
-  </si>
-  <si>
-    <t>Fine correct at $0.10 for each day after due date.</t>
-  </si>
-  <si>
-    <t>Verify item was checked in properly</t>
+    <t>Enter the name of an user with an item checked out and click "Search"</t>
+  </si>
+  <si>
+    <t>Click the "Return Items" button.</t>
+  </si>
+  <si>
+    <t>Return items dialog box opens.</t>
+  </si>
+  <si>
+    <t>Select the item to be returned from the dropdown list.</t>
+  </si>
+  <si>
+    <t>Item selected.</t>
+  </si>
+  <si>
+    <t>Click the "Return" button</t>
+  </si>
+  <si>
+    <t>Return item dialog box closes</t>
+  </si>
+  <si>
+    <t>Click the "Refresh" button</t>
+  </si>
+  <si>
+    <t>Returned item removed from "Checked out items"</t>
+  </si>
+  <si>
+    <t>Click the "Close" button</t>
+  </si>
+  <si>
+    <t>Library Card dialog box closes</t>
   </si>
   <si>
     <t>Item Request Test Cases</t>
@@ -268,91 +268,214 @@
     <t>Item Request Validation</t>
   </si>
   <si>
-    <t>Enter library card information for an adult user</t>
-  </si>
-  <si>
-    <t>Enter name of book that is currently checked out</t>
-  </si>
-  <si>
-    <t>Book name entered</t>
-  </si>
-  <si>
-    <t>Verify user is able to request item when returned</t>
-  </si>
-  <si>
-    <t>User given option to reserve book</t>
-  </si>
-  <si>
-    <t>Search for the requested item</t>
-  </si>
-  <si>
-    <t>Item located</t>
-  </si>
-  <si>
-    <t>Verify item has been set to requested</t>
-  </si>
-  <si>
-    <t>Item RenewalTest Cases</t>
+    <t>Enter the name of a user and click "Search"</t>
+  </si>
+  <si>
+    <t>Enter name of a checked out item and click "Search"</t>
+  </si>
+  <si>
+    <t>Item already checked out dialog box opens, reporting "Item already checked out"</t>
+  </si>
+  <si>
+    <t>Click "Request" button</t>
+  </si>
+  <si>
+    <t>On the Library Card dialog box, click "Close"</t>
+  </si>
+  <si>
+    <t>Enter the name of the user with the book that was requested and click "Search"</t>
+  </si>
+  <si>
+    <t>Verify the requested item is now tagged as "Requested!"</t>
+  </si>
+  <si>
+    <t>Checked out item has "Reqeusted!" tag</t>
+  </si>
+  <si>
+    <t>Item Renewal Test Cases</t>
   </si>
   <si>
     <t>Renew Item Validation</t>
   </si>
   <si>
-    <t>Find the name of a non-overdue book to return and click the "Renew Item" button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                             </t>
+    <t>Enter the name of a user with a checked out item and click "Search"</t>
+  </si>
+  <si>
+    <t>User's library card information dialog box opens with item checked out listed</t>
+  </si>
+  <si>
+    <t>Click the "Renew Items" button.</t>
+  </si>
+  <si>
+    <t>Renew items dialog box opens.</t>
+  </si>
+  <si>
+    <t>Select the item to be renewed from the dropdown list.</t>
+  </si>
+  <si>
+    <t>Click the "Renew" button</t>
+  </si>
+  <si>
+    <t>Renew item dialog box closes</t>
+  </si>
+  <si>
+    <t>Item remains checked out</t>
   </si>
   <si>
     <t>No More Renewals Validation</t>
   </si>
   <si>
-    <t>Find a book the user has already renewed</t>
-  </si>
-  <si>
-    <t>Item found</t>
-  </si>
-  <si>
-    <t>Verify the "Renew Item" button is disabled.</t>
-  </si>
-  <si>
-    <t>Button disabled, user unable to renew item.</t>
-  </si>
-  <si>
-    <t>or notification that item has already been renewed</t>
-  </si>
-  <si>
-    <t>Overdue Item Test Cases</t>
-  </si>
-  <si>
-    <t>Slightly overdue item</t>
-  </si>
-  <si>
-    <t>Enter library card information for a user with a slightly overdue item</t>
-  </si>
-  <si>
-    <t>Verify the return date, calculate the overdue fees at $0.10 per day past due date</t>
-  </si>
-  <si>
-    <t>Overdue fee calculated</t>
-  </si>
-  <si>
-    <t>Verify the overdue fee is displayed correctly</t>
-  </si>
-  <si>
-    <t>Overdue fee correct in system</t>
-  </si>
-  <si>
-    <t>Drasticly overdue item</t>
-  </si>
-  <si>
-    <t>Enter library card information for a user with a very overdue item</t>
-  </si>
-  <si>
-    <t>Verify the overdue fee does not exceed the item value</t>
-  </si>
-  <si>
-    <t>Overdue fee not over item value</t>
+    <t>Dialog box opens with message that "Item not Renewable"</t>
+  </si>
+  <si>
+    <t>Click "OK"</t>
+  </si>
+  <si>
+    <t>Not Renewable dialog box closes</t>
+  </si>
+  <si>
+    <t>Requested Item Renewal Validation</t>
+  </si>
+  <si>
+    <t>Enter the name of the user with a requested item checked out and click "Search"</t>
+  </si>
+  <si>
+    <t>Verify a checked out item has the "Requested!" tag</t>
+  </si>
+  <si>
+    <t>Item verified to be requested</t>
+  </si>
+  <si>
+    <t>On the Library Card dialog box, click "Renew Items"</t>
+  </si>
+  <si>
+    <t>Renew Items dialog box opens</t>
+  </si>
+  <si>
+    <t>From the dropdown, select the requested item and click "Renew"</t>
+  </si>
+  <si>
+    <t>"Item not renewable" dialog box opens</t>
+  </si>
+  <si>
+    <t>Click OK</t>
+  </si>
+  <si>
+    <t>Overdue Charges Test Cases</t>
+  </si>
+  <si>
+    <t>Overdue item fee &lt; item value</t>
+  </si>
+  <si>
+    <t>Click the "Find Item" button</t>
+  </si>
+  <si>
+    <t>Find Item dialog box opens.</t>
+  </si>
+  <si>
+    <t>Enter the name of a slightly overdue item and click "Search"</t>
+  </si>
+  <si>
+    <t>Dialog box opens showing item details, including time overdue and item value.</t>
+  </si>
+  <si>
+    <t>Calculate the overdue fee assessed by multiplying the days overdue by $.10</t>
+  </si>
+  <si>
+    <t>Fee calculated</t>
+  </si>
+  <si>
+    <t>Verify the calculated fee is what is displayed for the overdue fee of the item.</t>
+  </si>
+  <si>
+    <t>Values match</t>
+  </si>
+  <si>
+    <t>Click the "OK" button</t>
+  </si>
+  <si>
+    <t>Item dialog box closes</t>
+  </si>
+  <si>
+    <t>Enter the name of a user with the slightly overdue item and click "Search"</t>
+  </si>
+  <si>
+    <t>Verify item is listed with a tag of "Overdue!"</t>
+  </si>
+  <si>
+    <t>Item listed with "Overdue!" tag</t>
+  </si>
+  <si>
+    <t>Select that item to be returned from the dropdown list.</t>
+  </si>
+  <si>
+    <t>Take note of the overdue fees of the user.</t>
+  </si>
+  <si>
+    <t>Note taken</t>
+  </si>
+  <si>
+    <t>Click the "Refresh" button.</t>
+  </si>
+  <si>
+    <t>User card updates</t>
+  </si>
+  <si>
+    <t>Verify user "Total Fines" has increased by the amount verified in step 4</t>
+  </si>
+  <si>
+    <t>Fines increased by correct amount</t>
+  </si>
+  <si>
+    <t>Overdue item fee &gt; item value</t>
+  </si>
+  <si>
+    <t>Enter the name of a very overdue item and click "Search"</t>
+  </si>
+  <si>
+    <t>Verify the calculated fee is more than the item value.</t>
+  </si>
+  <si>
+    <t>Calculated value more than item value</t>
+  </si>
+  <si>
+    <t>Take note of the item value.</t>
+  </si>
+  <si>
+    <t>Value noted</t>
+  </si>
+  <si>
+    <t>Enter the name of a user with a very overdue item and click "Search"</t>
+  </si>
+  <si>
+    <t>Verify user "Total Fines" has increased by the amount noted in step 5, the item value</t>
+  </si>
+  <si>
+    <t>Paying overdue fines</t>
+  </si>
+  <si>
+    <t>Enter the name of a user with overdue fines and click "Search"</t>
+  </si>
+  <si>
+    <t>Verify the user has overdue fines</t>
+  </si>
+  <si>
+    <t>Fines verifed</t>
+  </si>
+  <si>
+    <t>Click the "Pay Fines" button</t>
+  </si>
+  <si>
+    <t>Dialog box opens with "Fines Paid!" message</t>
+  </si>
+  <si>
+    <t>Click OK to close the dialog box</t>
+  </si>
+  <si>
+    <t>Verify the user no longer has overdue fines</t>
+  </si>
+  <si>
+    <t>User fines are $0</t>
   </si>
 </sst>
 </file>
@@ -370,6 +493,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -383,8 +508,6 @@
     </font>
     <font/>
     <font>
-      <b/>
-      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -402,17 +525,17 @@
       <name val="Inconsolata"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,6 +546,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -438,6 +567,20 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -464,95 +607,71 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -826,7 +945,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.25"/>
+    <col customWidth="1" min="1" max="1" width="34.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -838,7 +957,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <f>'User Test Cases'!A3</f>
         <v>Adult User Data Validation</v>
       </c>
@@ -848,67 +967,67 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
+        <f>'User Test Cases'!A21</f>
+        <v>Child User Data Validation</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>'User Test Cases'!D21</f>
+        <v>Incomplete</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="str">
         <f>'User Test Cases'!A39</f>
         <v>Invalid user validation</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B4" s="2" t="str">
         <f>'User Test Cases'!D39</f>
         <v>Incomplete</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="str">
+    <row r="5">
+      <c r="A5" s="1" t="str">
         <f>'Item Checkout Test Cases'!A3</f>
         <v>Adult Checkout Validation</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B5" s="2" t="str">
         <f>'Item Checkout Test Cases'!D3</f>
         <v>Incomplete</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="str">
-        <f>'Item Checkout Test Cases'!A22</f>
+    <row r="6">
+      <c r="A6" s="1" t="str">
+        <f>'Item Checkout Test Cases'!A23</f>
         <v>Child Checkout Validation</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <f>'Item Checkout Test Cases'!D22</f>
+      <c r="B6" s="2" t="str">
+        <f>'Item Checkout Test Cases'!D23</f>
         <v>Incomplete</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="str">
+    <row r="7">
+      <c r="A7" s="1" t="str">
         <f>'Item Checkout Test Cases'!A44</f>
         <v>Invalid Item Checkout Validation</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B7" s="2" t="str">
         <f>'Item Checkout Test Cases'!D44</f>
         <v>Incomplete</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="str">
-        <f>ReturnItemTestCases!A3</f>
+    <row r="8">
+      <c r="A8" s="1" t="str">
+        <f>'Return Item Test Cases'!A3</f>
         <v>Return Item Validation</v>
       </c>
-      <c r="B7" s="2" t="str">
-        <f>ReturnItemTestCases!D3</f>
+      <c r="B8" s="2" t="str">
+        <f>'Return Item Test Cases'!D3</f>
         <v>Incomplete</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="str">
-        <f>ReturnItemTestCases!A8</f>
-        <v>Return Overdue Item Validation</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f>ReturnItemTestCases!D8</f>
-        <v>Incomplete</v>
-      </c>
-    </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <f>RequestTestCases!A3</f>
         <v>Item Request Validation</v>
       </c>
@@ -918,7 +1037,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="1" t="str">
         <f>RenewTestCases!A3</f>
         <v>Renew Item Validation</v>
       </c>
@@ -928,42 +1047,62 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="str">
-        <f>RenewTestCases!A7</f>
+      <c r="A11" s="1" t="str">
+        <f>RenewTestCases!A13</f>
         <v>No More Renewals Validation</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>RenewTestCases!D7</f>
+        <f>RenewTestCases!D13</f>
         <v>Incomplete</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="1" t="str">
+        <f>RenewTestCases!A27</f>
+        <v>Requested Item Renewal Validation</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>RenewTestCases!D27</f>
+        <v>Incomplete</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="str">
         <f>OverDueTestCases!A3</f>
-        <v>Slightly overdue item</v>
-      </c>
-      <c r="B12" s="2" t="str">
+        <v>Overdue item fee &lt; item value</v>
+      </c>
+      <c r="B13" s="2" t="str">
         <f>OverDueTestCases!D3</f>
-        <v>incomplete</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="str">
-        <f>OverDueTestCases!A8</f>
-        <v>Drasticly overdue item</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <f>OverDueTestCases!D8</f>
-        <v>incomplete</v>
+        <v>Incomplete</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="str">
+        <f>OverDueTestCases!A21</f>
+        <v>Overdue item fee &gt; item value</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>OverDueTestCases!D21</f>
+        <v>Incomplete</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="str">
+        <f>OverDueTestCases!A40</f>
+        <v>Paying overdue fines</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>OverDueTestCases!D40</f>
+        <v>Incomplete</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B13">
+  <conditionalFormatting sqref="B2:B15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B13">
+  <conditionalFormatting sqref="B2:B15">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
@@ -996,11 +1135,11 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2">
-      <c r="A2" s="1"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="6"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5"/>
@@ -1014,7 +1153,7 @@
       <c r="H3" s="10"/>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>1.0</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1023,12 +1162,12 @@
       <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
+      <c r="D4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>2.0</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1037,11 +1176,11 @@
       <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="I5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>3.0</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -1050,13 +1189,13 @@
       <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="12"/>
       <c r="F6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>4.0</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -1065,12 +1204,12 @@
       <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="12"/>
       <c r="F7" s="11"/>
-      <c r="I7" s="13"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="6">
         <v>5.0</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1079,13 +1218,13 @@
       <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="12"/>
       <c r="F8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="6">
         <v>6.0</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -1094,12 +1233,12 @@
       <c r="C9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="12"/>
       <c r="F9" s="11"/>
-      <c r="I9" s="13"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="6">
         <v>7.0</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -1108,13 +1247,13 @@
       <c r="C10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="12"/>
       <c r="F10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <v>8.0</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -1123,13 +1262,13 @@
       <c r="C11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="12"/>
       <c r="F11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>9.0</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -1138,12 +1277,12 @@
       <c r="C12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13">
-      <c r="A13" s="1">
+      <c r="A13" s="6">
         <v>10.0</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -1152,12 +1291,12 @@
       <c r="C13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14">
-      <c r="A14" s="1">
+      <c r="A14" s="6">
         <v>11.0</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -1166,12 +1305,12 @@
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="6">
         <v>12.0</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -1180,12 +1319,12 @@
       <c r="C15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="6">
         <v>13.0</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -1194,12 +1333,12 @@
       <c r="C16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="6">
         <v>14.0</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -1208,12 +1347,12 @@
       <c r="C17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="6">
         <v>15.0</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -1222,23 +1361,23 @@
       <c r="C18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19">
-      <c r="H19" s="14"/>
-      <c r="I19" s="13"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20">
-      <c r="H20" s="14"/>
-      <c r="I20" s="13"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="8" t="s">
         <v>4</v>
       </c>
@@ -1248,7 +1387,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
+      <c r="A22" s="6">
         <v>1.0</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -1257,23 +1396,23 @@
       <c r="C22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="17"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23">
-      <c r="A23" s="1">
+      <c r="A23" s="6">
         <v>2.0</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24">
-      <c r="A24" s="1">
+      <c r="A24" s="6">
         <v>3.0</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -1282,10 +1421,10 @@
       <c r="C24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25">
-      <c r="A25" s="1">
+      <c r="A25" s="6">
         <v>4.0</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -1294,10 +1433,10 @@
       <c r="C25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26">
-      <c r="A26" s="1">
+      <c r="A26" s="6">
         <v>5.0</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -1306,10 +1445,10 @@
       <c r="C26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27">
-      <c r="A27" s="1">
+      <c r="A27" s="6">
         <v>6.0</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -1318,34 +1457,34 @@
       <c r="C27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28">
-      <c r="A28" s="1">
+      <c r="A28" s="6">
         <v>7.0</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30">
-      <c r="A30" s="1">
+      <c r="A30" s="6">
         <v>9.0</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -1354,10 +1493,10 @@
       <c r="C30" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31">
-      <c r="A31" s="1">
+      <c r="A31" s="6">
         <v>10.0</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -1366,10 +1505,10 @@
       <c r="C31" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32">
-      <c r="A32" s="1">
+      <c r="A32" s="6">
         <v>11.0</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -1378,10 +1517,10 @@
       <c r="C32" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33">
-      <c r="A33" s="1">
+      <c r="A33" s="6">
         <v>12.0</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -1390,10 +1529,10 @@
       <c r="C33" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34">
-      <c r="A34" s="1">
+      <c r="A34" s="6">
         <v>13.0</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -1402,10 +1541,10 @@
       <c r="C34" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="35">
-      <c r="A35" s="1">
+      <c r="A35" s="6">
         <v>14.0</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -1414,10 +1553,10 @@
       <c r="C35" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36">
-      <c r="A36" s="1">
+      <c r="A36" s="6">
         <v>15.0</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -1426,7 +1565,7 @@
       <c r="C36" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="12"/>
     </row>
     <row r="37">
       <c r="A37" s="18"/>
@@ -1441,7 +1580,7 @@
       <c r="D38" s="20"/>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="5"/>
@@ -1449,12 +1588,12 @@
         <v>4</v>
       </c>
       <c r="D39" s="9" t="str">
-        <f>if(or(ISBLANK(D40),ISBLANK(D41),ISBLANK(D42),ISBLANK(D43)),"Incomplete",if(AND(D40="PASS",D41="PASS",D42="PASS",D43="PASS"),"PASS","FAIL"))</f>
+        <f>if(or(ISBLANK(D40),ISBLANK(D41),ISBLANK(D42),ISBLANK(D43),ISBLANK(D44)),"Incomplete",if(AND(D40="PASS",D41="PASS",D42="PASS",D43="PASS",D44="PASS"),"PASS","FAIL"))</f>
         <v>Incomplete</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
+      <c r="A40" s="6">
         <v>1.0</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -1463,22 +1602,22 @@
       <c r="C40" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="41">
-      <c r="A41" s="1">
+      <c r="A41" s="6">
         <v>2.0</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="12"/>
     </row>
     <row r="42">
-      <c r="A42" s="1">
+      <c r="A42" s="6">
         <v>3.0</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -1487,10 +1626,10 @@
       <c r="C42" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="12"/>
     </row>
     <row r="43">
-      <c r="A43" s="1">
+      <c r="A43" s="6">
         <v>4.0</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -1499,26 +1638,36 @@
       <c r="C43" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D18 D21:D43">
+  <conditionalFormatting sqref="D3:D18 D21:D44">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D18 D21:D43">
+  <conditionalFormatting sqref="D3:D18 D21:D44">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D4:D18 D22:D36 D40:D43">
+    <dataValidation type="list" allowBlank="1" sqref="D4:D18 D22:D36 D40:D44">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1551,11 +1700,11 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2">
-      <c r="A2" s="1"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="6"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="5"/>
@@ -1568,7 +1717,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>1.0</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1577,10 +1726,10 @@
       <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>2.0</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1589,178 +1738,178 @@
       <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>3.0</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>4.0</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="6">
         <v>5.0</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="6">
         <v>6.0</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="6">
         <v>7.0</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <v>8.0</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>9.0</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="1">
+      <c r="A13" s="6">
         <v>10.0</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14">
-      <c r="A14" s="1">
+      <c r="A14" s="6">
         <v>11.0</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="6">
         <v>12.0</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="6">
         <v>13.0</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="6">
         <v>14.0</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="6">
         <v>15.0</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="6">
         <v>16.0</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="6">
         <v>17.0</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -1769,242 +1918,236 @@
       <c r="C20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
+      <c r="D20" s="12"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="8" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="9" t="str">
-        <f>if(or(ISBLANK(D23),ISBLANK(D24),isblank(D25),isblank(D26),isblank(D27),isblank(D28),isblank(D29),isblank(D30),isblank(D31),ISBLANK(D32),ISBLANK(D33),isblank(D34),isblank(D35),isblank(D36),isblank(D37),isblank(D38),isblank(D39),isblank(D40)),"Incomplete",if(AND(D23="PASS",D24="PASS",D25="PASS",D26="PASS",D27="PASS",D28="PASS",D29="PASS",D30="PASS",D31="PASS",D32="PASS",D33="PASS",D34="PASS",D35="PASS",D36="PASS",D37="PASS",D38="PASS",D39="PASS",D40="PASS"),"PASS","FAIL"))</f>
+      <c r="D23" s="9" t="str">
+        <f>if(or(ISBLANK(D24),ISBLANK(D25),isblank(D26),isblank(D27),isblank(D28),isblank(D29),isblank(D30),isblank(D31),isblank(D32),ISBLANK(D33),ISBLANK(D34),isblank(D35),isblank(D36),isblank(D37),isblank(D38),isblank(D39),isblank(D40),isblank(D41)),"Incomplete",if(AND(D24="PASS",D25="PASS",D26="PASS",D27="PASS",D28="PASS",D29="PASS",D30="PASS",D31="PASS",D32="PASS",D33="PASS",D34="PASS",D35="PASS",D36="PASS",D37="PASS",D38="PASS",D39="PASS",D40="PASS",D41="PASS"),"PASS","FAIL"))</f>
         <v>Incomplete</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
+    <row r="24">
+      <c r="A24" s="6">
         <v>1.0</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6">
         <v>2.0</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="6">
         <v>3.0</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6">
         <v>4.0</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B27" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="6">
         <v>5.0</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B28" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="6">
         <v>6.0</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B29" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1">
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="6">
         <v>7.0</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B30" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C30" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1">
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="6">
         <v>8.0</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B31" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1">
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="6">
         <v>9.0</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B32" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1">
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="6">
         <v>10.0</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B33" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1">
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="6">
         <v>11.0</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B34" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1">
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="6">
         <v>12.0</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B35" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1">
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="6">
         <v>13.0</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B36" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1">
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="6">
         <v>14.0</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B37" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1">
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="6">
         <v>15.0</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B38" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="12"/>
     </row>
     <row r="39">
-      <c r="A39" s="1">
+      <c r="A39" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="12"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="6">
         <v>17.0</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B40" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1">
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="6">
         <v>18.0</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B41" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="D41" s="12"/>
     </row>
     <row r="42">
       <c r="A42" s="21"/>
@@ -2019,7 +2162,7 @@
       <c r="D43" s="21"/>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="5"/>
@@ -2027,12 +2170,12 @@
         <v>4</v>
       </c>
       <c r="D44" s="9" t="str">
-        <f>if(or(ISBLANK(D45),ISBLANK(D46),isblank(D47),ISBLANK(D48),ISBLANK(D49),isblank(D50),ISBLANK(D51),ISBLANK(D52)),"Incomplete",if(AND(D45="PASS",D46="PASS",D47="PASS",D48="PASS",D49="PASS",D50="PASS",D51="PASS",D52="PASS"),"PASS","FAIL"))</f>
+        <f>if(or(ISBLANK(D45),ISBLANK(D46),isblank(D47),ISBLANK(D48),ISBLANK(D49),isblank(D50),ISBLANK(D51)),"Incomplete",if(AND(D45="PASS",D46="PASS",D47="PASS",D48="PASS",D49="PASS",D50="PASS",D51="PASS"),"PASS","FAIL"))</f>
         <v>Incomplete</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
+      <c r="A45" s="6">
         <v>1.0</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -2041,10 +2184,10 @@
       <c r="C45" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="46">
-      <c r="A46" s="1">
+      <c r="A46" s="6">
         <v>2.0</v>
       </c>
       <c r="B46" s="11" t="s">
@@ -2053,10 +2196,10 @@
       <c r="C46" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="47">
-      <c r="A47" s="1">
+      <c r="A47" s="6">
         <v>3.0</v>
       </c>
       <c r="B47" s="11" t="s">
@@ -2065,22 +2208,22 @@
       <c r="C47" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="12"/>
     </row>
     <row r="48">
-      <c r="A48" s="1">
+      <c r="A48" s="6">
         <v>4.0</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="11" t="s">
+      <c r="B48" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="C48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="12"/>
     </row>
     <row r="49">
-      <c r="A49" s="1">
+      <c r="A49" s="6">
         <v>5.0</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -2089,10 +2232,10 @@
       <c r="C49" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="12"/>
     </row>
     <row r="50">
-      <c r="A50" s="1">
+      <c r="A50" s="6">
         <v>6.0</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -2101,51 +2244,39 @@
       <c r="C50" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="12"/>
     </row>
     <row r="51">
-      <c r="A51" s="1">
+      <c r="A51" s="6">
         <v>7.0</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="11" t="s">
+      <c r="B51" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="C51" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A44:B44"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D20 D22:D40 D44:D52">
+  <conditionalFormatting sqref="D3:D20 D23:D41 D44:D51">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D20 D22:D40 D44:D52">
+  <conditionalFormatting sqref="D3:D20 D23:D41 D44:D51">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D4:D20 D23:D40 D45:D52">
+    <dataValidation type="list" allowBlank="1" sqref="D4:D20 D24:D41 D45:D51">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2171,137 +2302,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
     </row>
     <row r="2">
-      <c r="A2" s="1"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="6"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>68</v>
+      <c r="A3" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f>if(or(ISBLANK(D4),ISBLANK(D5)),"Incomplete",if(AND(D4="PASS",D5="PASS"),"PASS","FAIL"))</f>
+        <f>if(or(ISBLANK(D4),ISBLANK(D5),isblank(D6),ISBLANK(D7),ISBLANK(D8),isblank(D9),ISBLANK(D10)),"Incomplete",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS",D10="PASS"),"PASS","FAIL"))</f>
         <v>Incomplete</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>1.0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>3.0</v>
-      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="9" t="str">
-        <f>if(or(ISBLANK(D9),ISBLANK(D10),isblank(D11),isblank(D12)),"Incomplete",if(AND(D9="PASS",D10="PASS",D11="PASS",D12="PASS"),"PASS","FAIL"))</f>
-        <v>Incomplete</v>
-      </c>
+      <c r="A8" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="A9" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="A10" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="D10" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D5 D8:D12">
+  <conditionalFormatting sqref="D3:D10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5 D8:D12">
+  <conditionalFormatting sqref="D3:D10">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D4:D5 D9:D12">
+    <dataValidation type="list" allowBlank="1" sqref="D4:D10">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2334,11 +2458,11 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2">
-      <c r="A2" s="1"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="6"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="5"/>
@@ -2346,87 +2470,159 @@
         <v>4</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f>if(or(ISBLANK(D4),ISBLANK(D5),isblank(D6),isblank(D8)),"Incomplete",if(AND(D4="PASS",D5="PASS",D6="PASS",D8="PASS"),"PASS","FAIL"))</f>
+        <f>if(or(ISBLANK(D4),ISBLANK(D5),isblank(D6),isblank(D7),isblank(D8),isblank(D9),isblank(D10),isblank(D11),isblank(D12),isblank(D13),isblank(D14)),"Incomplete",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS",D10="PASS",D11="PASS",D12="PASS",D13="PASS",D14="PASS"),"PASS","FAIL"))</f>
         <v>Incomplete</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>1.0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C13" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D8">
+  <conditionalFormatting sqref="D3:D14">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8">
+  <conditionalFormatting sqref="D3:D14">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D4:D8">
+    <dataValidation type="list" allowBlank="1" sqref="D4:D14">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2458,7 +2654,7 @@
       <c r="D1" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="5"/>
@@ -2466,106 +2662,355 @@
         <v>4</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f>if(or(ISBLANK(D4),ISBLANK(D5)),"Incomplete",if(AND(D4="PASS",D5="PASS"),"PASS","FAIL"))</f>
+        <f>if(or(ISBLANK(D4),ISBLANK(D5),isblank(D6),ISBLANK(D7),ISBLANK(D8),isblank(D9),ISBLANK(D10)),"Incomplete",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS",D10="PASS"),"PASS","FAIL"))</f>
         <v>Incomplete</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>1.0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2"/>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>2.0</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9" t="str">
+        <f>if(or(ISBLANK(D14),ISBLANK(D15),isblank(D16),ISBLANK(D17),ISBLANK(D18),isblank(D19),ISBLANK(D20),ISBLANK(D21),ISBLANK(D22),isblank(D23),ISBLANK(D24)),"Incomplete",if(AND(D14="PASS",D15="PASS",D16="PASS",D17="PASS",D18="PASS",D19="PASS",D20="PASS",D21="PASS",D22="PASS",D23="PASS",D24="PASS"),"PASS","FAIL"))</f>
+        <v>Incomplete</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8" t="s">
+      <c r="C16" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9" t="str">
-        <f>if(or(ISBLANK(D8),ISBLANK(D9),isblank(D10)),"Incomplete",if(AND(D8="PASS",D9="PASS",D10="PASS"),"PASS","FAIL"))</f>
+      <c r="D27" s="9" t="str">
+        <f>if(or(ISBLANK(D28),ISBLANK(D29),isblank(D30),ISBLANK(#REF!),ISBLANK(D31),isblank(D32),ISBLANK(D33),ISBLANK(D34)),"Incomplete",if(AND(D28="PASS",D29="PASS",D30="PASS",#REF!="PASS",D31="PASS",D32="PASS",D33="PASS",D34="PASS"),"PASS","FAIL"))</f>
         <v>Incomplete</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
+    <row r="28">
+      <c r="A28" s="6">
         <v>1.0</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
+      <c r="B28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="6">
         <v>2.0</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
+      <c r="B29" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="6">
         <v>3.0</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="B30" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D5 D7:D10">
+  <conditionalFormatting sqref="D3:D10 D13:D24 D27:D34">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5 D7:D10">
+  <conditionalFormatting sqref="D3:D10 D13:D24 D27:D34">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D4:D5 D8:D10">
+    <dataValidation type="list" allowBlank="1" sqref="D4:D10 D14:D24 D28:D34">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2584,13 +3029,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="6.63"/>
-    <col customWidth="1" min="2" max="2" width="59.88"/>
+    <col customWidth="1" min="2" max="2" width="63.13"/>
     <col customWidth="1" min="3" max="3" width="24.75"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2598,118 +3043,519 @@
     </row>
     <row r="3">
       <c r="A3" s="23" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="25" t="str">
-        <f>if(or(ISBLANK(D4),ISBLANK(D5),isblank(D6)),"incomplete",if(AND(D4="PASS",D5="PASS",D6="PASS"),"PASS","FAIL"))</f>
-        <v>incomplete</v>
+      <c r="D3" s="9" t="str">
+        <f>if(or(ISBLANK(D4),ISBLANK(D5),isblank(D6),isblank(D7),isblank(D8),isblank(D9),isblank(D10),isblank(D11),isblank(D12),isblank(D13),isblank(D14),isblank(D15),isblank(D16),isblank(D17),isblank(D18)),"Incomplete",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS",D10="PASS",D11="PASS",D12="PASS",D13="PASS",D14="PASS",D15="PASS",D16="PASS",D17="PASS",D18="PASS"),"PASS","FAIL"))</f>
+        <v>Incomplete</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="26">
+      <c r="A4" s="6">
         <v>1.0</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="28"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
+      <c r="C14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="9" t="str">
+        <f>if(or(ISBLANK(D22),ISBLANK(D23),isblank(D24),isblank(D25),isblank(D26),isblank(D27),isblank(D28),isblank(D29),isblank(D30),isblank(D31),isblank(D32),isblank(D33),isblank(D34),isblank(D35),isblank(D36),isblank(D37)),"Incomplete",if(AND(D22="PASS",D23="PASS",D24="PASS",D25="PASS",D26="PASS",D27="PASS",D28="PASS",D29="PASS",D30="PASS",D31="PASS",D32="PASS",D33="PASS",D34="PASS",D35="PASS",D36="PASS",D37="PASS"),"PASS","FAIL"))</f>
+        <v>Incomplete</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="6">
         <v>2.0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="26">
+      <c r="B23" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6">
         <v>3.0</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="29"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="24" t="s">
+      <c r="B24" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="25"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="25"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="25"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="25" t="str">
-        <f>if(or(ISBLANK(D9),ISBLANK(D10),isblank(D11)),"incomplete",if(AND(D9="PASS",D10="PASS",D11="PASS"),"PASS","FAIL"))</f>
-        <v>incomplete</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="26">
+      <c r="D40" s="9" t="str">
+        <f>if(or(ISBLANK(D41),ISBLANK(D42),isblank(D43),ISBLANK(D44),ISBLANK(D45),isblank(D46),ISBLANK(D47)),"Incomplete",if(AND(D41="PASS",D42="PASS",D43="PASS",D44="PASS",D45="PASS",D46="PASS",D47="PASS"),"PASS","FAIL"))</f>
+        <v>Incomplete</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6">
         <v>1.0</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="29"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="26">
+      <c r="B41" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="25"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="6">
         <v>2.0</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="29"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="26">
+      <c r="B42" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="25"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="6">
         <v>3.0</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="29"/>
+      <c r="B43" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="25"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="25"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="25"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="25"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A40:B40"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D6 D8:D11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="D3:D15 D21 D40">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D18 D21:D36 D40:D47">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D6 D8:D11">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="D3:D18 D21:D36 D41:D47">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D4:D6 D9:D11">
+    <dataValidation type="list" allowBlank="1" sqref="D4:D18 D22:D36 D41:D47">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Group 4 Test Cases.xlsx
+++ b/Group 4 Test Cases.xlsx
@@ -1147,7 +1147,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f>if(or(ISBLANK(D4),ISBLANK(D5),isblank(D6),isblank(D7),isblank(D8),isblank(D9),isblank(D10),isblank(D11),isblank(D12),isblank(D13),isblank(D14),isblank(D15),isblank(D16),isblank(D17),isblank(D18)),"Incomplete",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS",D10="PASS",D11="PASS",D12="PASS",D13="PASS",D14="PASS",D15="PASS",D16="PASS",D17="PASS",D18="PASS"),"PASS","FAIL"))</f>
+        <f>if(or(D4="FAIL",D5="FAIL",D6="FAIL",D7="FAIL",D8="FAIL",D9="FAIL",D10="FAIL",D11="FAIL",D12="FAIL",D13="FAIL",D14="FAIL",D15="FAIL",D16="FAIL",D17="FAIL",D18="FAIL"),"FAIL",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS",D10="PASS",D11="PASS",D12="PASS",D13="PASS",D14="PASS",D15="PASS",D16="PASS",D17="PASS",D18="PASS"),"PASS","Incomplete"))</f>
         <v>Incomplete</v>
       </c>
       <c r="H3" s="10"/>
@@ -1382,7 +1382,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="9" t="str">
-        <f>if(or(ISBLANK(D22),ISBLANK(D23),isblank(D24),isblank(D25),isblank(D26),isblank(D27),isblank(D28),isblank(D29),isblank(D30),isblank(D31),isblank(D32),isblank(D33),isblank(D34),isblank(D35),isblank(D36)),"Incomplete",if(AND(D22="PASS",D23="PASS",D24="PASS",D25="PASS",D26="PASS",D27="PASS",D28="PASS",D29="PASS",D30="PASS",D31="PASS",D32="PASS",D33="PASS",D34="PASS",D35="PASS",D36="PASS"),"PASS","FAIL"))</f>
+        <f>if(or(D22="FAIL",D23="FAIL",D24="FAIL",D25="FAIL",D26="FAIL",D27="FAIL",D28="FAIL",D29="FAIL",D30="FAIL",D31="FAIL",D32="FAIL",D33="FAIL",D34="FAIL",D35="FAIL",D36="FAIL"),"FAIL",if(AND(D22="PASS",D23="PASS",D24="PASS",D25="PASS",D26="PASS",D27="PASS",D28="PASS",D29="PASS",D30="PASS",D31="PASS",D32="PASS",D33="PASS",D34="PASS",D35="PASS",D36="PASS"),"PASS","Incomplete"))</f>
         <v>Incomplete</v>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="9" t="str">
-        <f>if(or(ISBLANK(D40),ISBLANK(D41),ISBLANK(D42),ISBLANK(D43),ISBLANK(D44)),"Incomplete",if(AND(D40="PASS",D41="PASS",D42="PASS",D43="PASS",D44="PASS"),"PASS","FAIL"))</f>
+        <f>if(or(D40="FAIL",D41="FAIL",D42="FAIL",D43="FAIL",D44="FAIL"),"FAIL",if(AND(D40="PASS",D41="PASS",D42="PASS",D43="PASS",D44="PASS"),"PASS","Incomplete"))</f>
         <v>Incomplete</v>
       </c>
     </row>
@@ -1653,8 +1653,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D18 D21:D44">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -1712,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f>if(or(ISBLANK(D4),ISBLANK(D5),isblank(D6),isblank(D7),isblank(D8),isblank(D9),isblank(D10),isblank(D11),isblank(D12),isblank(D13),isblank(D14),isblank(D15),isblank(D16),isblank(D17),isblank(D18),isblank(D19),isblank(D20)),"Incomplete",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS",D10="PASS",D11="PASS",D12="PASS",D13="PASS",D14="PASS",D15="PASS",D16="PASS",D17="PASS",D18="PASS",D19="PASS",D20="PASS"),"PASS","FAIL"))</f>
+        <f>if(or(D4="FAIL",D5="FAIL",D6="FAIL",D7="FAIL",D8="FAIL",D9="FAIL",D10="FAIL",D11="FAIL",D12="FAIL",D13="FAIL",D14="FAIL",D15="FAIL",D16="FAIL",D17="FAIL",D18="FAIL",D19="FAIL",D20="FAIL"),"FAIL",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS",D10="PASS",D11="PASS",D12="PASS",D13="PASS",D14="PASS",D15="PASS",D16="PASS",D17="PASS",D18="PASS",D19="PASS",D20="PASS"),"PASS","Incomplete"))</f>
         <v>Incomplete</v>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="9" t="str">
-        <f>if(or(ISBLANK(D24),ISBLANK(D25),isblank(D26),isblank(D27),isblank(D28),isblank(D29),isblank(D30),isblank(D31),isblank(D32),ISBLANK(D33),ISBLANK(D34),isblank(D35),isblank(D36),isblank(D37),isblank(D38),isblank(D39),isblank(D40),isblank(D41)),"Incomplete",if(AND(D24="PASS",D25="PASS",D26="PASS",D27="PASS",D28="PASS",D29="PASS",D30="PASS",D31="PASS",D32="PASS",D33="PASS",D34="PASS",D35="PASS",D36="PASS",D37="PASS",D38="PASS",D39="PASS",D40="PASS",D41="PASS"),"PASS","FAIL"))</f>
+        <f>if(or(D24="FAIL",D25="FAIL",D26="FAIL",D27="FAIL",D28="FAIL",D29="FAIL",D30="FAIL",D31="FAIL",D32="FAIL",D33="FAIL",D34="FAIL",D35="FAIL",D36="FAIL",D37="FAIL",D38="FAIL",D39="FAIL",D40="FAIL",D41="FAIL"),"FAIL",if(AND(D24="PASS",D25="PASS",D26="PASS",D27="PASS",D28="PASS",D29="PASS",D30="PASS",D31="PASS",D32="PASS",D33="PASS",D34="PASS",D35="PASS",D36="PASS",D37="PASS",D38="PASS",D39="PASS",D40="PASS",D41="PASS"),"PASS","Incomplete"))</f>
         <v>Incomplete</v>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="9" t="str">
-        <f>if(or(ISBLANK(D45),ISBLANK(D46),isblank(D47),ISBLANK(D48),ISBLANK(D49),isblank(D50),ISBLANK(D51)),"Incomplete",if(AND(D45="PASS",D46="PASS",D47="PASS",D48="PASS",D49="PASS",D50="PASS",D51="PASS"),"PASS","FAIL"))</f>
+        <f>if(or(D45="FAIL",D46="FAIL",D47="FAIL",D48="FAIL",D49="FAIL",D50="FAIL",D51="FAIL"),"FAIL",if(AND(D45="PASS",D46="PASS",D47="PASS",D48="PASS",D49="PASS",D50="PASS",D51="PASS"),"PASS","Incomplete"))</f>
         <v>Incomplete</v>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f>if(or(ISBLANK(D4),ISBLANK(D5),isblank(D6),ISBLANK(D7),ISBLANK(D8),isblank(D9),ISBLANK(D10)),"Incomplete",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS",D10="PASS"),"PASS","FAIL"))</f>
+        <f>if(or(D4="FAIL",D5="FAIL",D6="FAIL",D7="FAIL",D8="FAIL",D9="FAIL",D10="FAIL"),"FAIL",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS",D10="PASS"),"PASS","Incomplete"))</f>
         <v>Incomplete</v>
       </c>
     </row>
@@ -2470,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f>if(or(ISBLANK(D4),ISBLANK(D5),isblank(D6),isblank(D7),isblank(D8),isblank(D9),isblank(D10),isblank(D11),isblank(D12),isblank(D13),isblank(D14)),"Incomplete",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS",D10="PASS",D11="PASS",D12="PASS",D13="PASS",D14="PASS"),"PASS","FAIL"))</f>
+        <f>if(or(D4="FAIL",D5="FAIL",D6="FAIL",D7="FAIL",D8="FAIL",D9="FAIL",D10="FAIL",D11="FAIL",D12="FAIL",D13="FAIL",D14="FAIL"),"FAIL",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS",D10="PASS",D11="PASS",D12="PASS",D13="PASS",D14="PASS"),"PASS","Incomplete"))</f>
         <v>Incomplete</v>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f>if(or(ISBLANK(D4),ISBLANK(D5),isblank(D6),ISBLANK(D7),ISBLANK(D8),isblank(D9),ISBLANK(D10)),"Incomplete",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS",D10="PASS"),"PASS","FAIL"))</f>
+        <f>if(or(D4="FAIL",D5="FAIL",D6="FAIL",D7="FAIL",D8="FAIL",D9="FAIL",D10="FAIL"),"FAIL",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS",D10="PASS"),"PASS","Incomplete"))</f>
         <v>Incomplete</v>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="9" t="str">
-        <f>if(or(ISBLANK(D14),ISBLANK(D15),isblank(D16),ISBLANK(D17),ISBLANK(D18),isblank(D19),ISBLANK(D20),ISBLANK(D21),ISBLANK(D22),isblank(D23),ISBLANK(D24)),"Incomplete",if(AND(D14="PASS",D15="PASS",D16="PASS",D17="PASS",D18="PASS",D19="PASS",D20="PASS",D21="PASS",D22="PASS",D23="PASS",D24="PASS"),"PASS","FAIL"))</f>
+        <f>if(or(D14="FAIL",D15="FAIL",D16="FAIL",D17="FAIL",D18="FAIL",D19="FAIL",D20="FAIL",D21="FAIL",D22="FAIL",D23="FAIL",D24="FAIL"),"FAIL",if(AND(D14="PASS",D15="PASS",D16="PASS",D17="PASS",D18="PASS",D19="PASS",D20="PASS",D21="PASS",D22="PASS",D23="PASS",D24="PASS"),"PASS","Incomplete"))</f>
         <v>Incomplete</v>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="9" t="str">
-        <f>if(or(ISBLANK(D28),ISBLANK(D29),isblank(D30),ISBLANK(#REF!),ISBLANK(D31),isblank(D32),ISBLANK(D33),ISBLANK(D34)),"Incomplete",if(AND(D28="PASS",D29="PASS",D30="PASS",#REF!="PASS",D31="PASS",D32="PASS",D33="PASS",D34="PASS"),"PASS","FAIL"))</f>
+        <f>if(or(D28="FAIL",D29="FAIL",D30="FAIL",D31="FAIL",D32="FAIL",D33="FAIL",D34="FAIL"),"FAIL",if(AND(D28="PASS",D29="PASS",D30="PASS",D31="PASS",D32="PASS",D33="PASS",D34="PASS"),"PASS","Incomplete"))</f>
         <v>Incomplete</v>
       </c>
     </row>
@@ -3049,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f>if(or(ISBLANK(D4),ISBLANK(D5),isblank(D6),isblank(D7),isblank(D8),isblank(D9),isblank(D10),isblank(D11),isblank(D12),isblank(D13),isblank(D14),isblank(D15),isblank(D16),isblank(D17),isblank(D18)),"Incomplete",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS",D10="PASS",D11="PASS",D12="PASS",D13="PASS",D14="PASS",D15="PASS",D16="PASS",D17="PASS",D18="PASS"),"PASS","FAIL"))</f>
+        <f>if(or(D4="FAIL",D5="FAIL",D6="FAIL",D7="FAIL",D8="FAIL",D9="FAIL",D10="FAIL",D11="FAIL",D12="FAIL",D13="FAIL",D14="FAIL",D15="FAIL",D16="FAIL",D17="FAIL",D18="FAIL"),"FAIL",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS",D10="PASS",D11="PASS",D12="PASS",D13="PASS",D14="PASS",D15="PASS",D16="PASS",D17="PASS",D18="PASS"),"PASS","Incomplete"))</f>
         <v>Incomplete</v>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="9" t="str">
-        <f>if(or(ISBLANK(D22),ISBLANK(D23),isblank(D24),isblank(D25),isblank(D26),isblank(D27),isblank(D28),isblank(D29),isblank(D30),isblank(D31),isblank(D32),isblank(D33),isblank(D34),isblank(D35),isblank(D36),isblank(D37)),"Incomplete",if(AND(D22="PASS",D23="PASS",D24="PASS",D25="PASS",D26="PASS",D27="PASS",D28="PASS",D29="PASS",D30="PASS",D31="PASS",D32="PASS",D33="PASS",D34="PASS",D35="PASS",D36="PASS",D37="PASS"),"PASS","FAIL"))</f>
+        <f>if(or(D22="FAIL",D23="FAIL",D24="FAIL",D25="FAIL",D26="FAIL",D27="FAIL",D28="FAIL",D29="FAIL",D30="FAIL",D31="FAIL",D32="FAIL",D33="FAIL",D34="FAIL",D35="FAIL",D36="FAIL",D37="FAIL"),"FAIL",if(AND(D22="PASS",D23="PASS",D24="PASS",D25="PASS",D26="PASS",D27="PASS",D28="PASS",D29="PASS",D30="PASS",D31="PASS",D32="PASS",D33="PASS",D34="PASS",D35="PASS",D36="PASS",D37="PASS"),"PASS","Incomplete"))</f>
         <v>Incomplete</v>
       </c>
     </row>
@@ -3444,7 +3444,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="9" t="str">
-        <f>if(or(ISBLANK(D41),ISBLANK(D42),isblank(D43),ISBLANK(D44),ISBLANK(D45),isblank(D46),ISBLANK(D47)),"Incomplete",if(AND(D41="PASS",D42="PASS",D43="PASS",D44="PASS",D45="PASS",D46="PASS",D47="PASS"),"PASS","FAIL"))</f>
+        <f>if(or(D41="FAIL",D42="FAIL",D43="FAIL",D44="FAIL",D45="FAIL",D46="FAIL",D47="FAIL"),"FAIL",if(AND(D41="PASS",D42="PASS",D43="PASS",D44="PASS",D45="PASS",D46="PASS",D47="PASS"),"PASS","Incomplete"))</f>
         <v>Incomplete</v>
       </c>
     </row>

--- a/Group 4 Test Cases.xlsx
+++ b/Group 4 Test Cases.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="155">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>Child Checkout Validation</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
   <si>
     <t>Dialog box opens, reporting "Max of items checked out"</t>
@@ -567,6 +573,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -578,9 +587,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -611,17 +617,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -633,9 +636,12 @@
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -662,13 +668,16 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -961,7 +970,7 @@
         <f>'User Test Cases'!A3</f>
         <v>Adult User Data Validation</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <f>'User Test Cases'!D3</f>
         <v>Incomplete</v>
       </c>
@@ -971,7 +980,7 @@
         <f>'User Test Cases'!A21</f>
         <v>Child User Data Validation</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <f>'User Test Cases'!D21</f>
         <v>Incomplete</v>
       </c>
@@ -981,7 +990,7 @@
         <f>'User Test Cases'!A39</f>
         <v>Invalid user validation</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <f>'User Test Cases'!D39</f>
         <v>Incomplete</v>
       </c>
@@ -991,7 +1000,7 @@
         <f>'Item Checkout Test Cases'!A3</f>
         <v>Adult Checkout Validation</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <f>'Item Checkout Test Cases'!D3</f>
         <v>Incomplete</v>
       </c>
@@ -1001,9 +1010,9 @@
         <f>'Item Checkout Test Cases'!A23</f>
         <v>Child Checkout Validation</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <f>'Item Checkout Test Cases'!D23</f>
-        <v>Incomplete</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="7">
@@ -1011,7 +1020,7 @@
         <f>'Item Checkout Test Cases'!A44</f>
         <v>Invalid Item Checkout Validation</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <f>'Item Checkout Test Cases'!D44</f>
         <v>Incomplete</v>
       </c>
@@ -1021,9 +1030,9 @@
         <f>'Return Item Test Cases'!A3</f>
         <v>Return Item Validation</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <f>'Return Item Test Cases'!D3</f>
-        <v>Incomplete</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="9">
@@ -1031,7 +1040,7 @@
         <f>RequestTestCases!A3</f>
         <v>Item Request Validation</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <f>RequestTestCases!D3</f>
         <v>Incomplete</v>
       </c>
@@ -1041,7 +1050,7 @@
         <f>RenewTestCases!A3</f>
         <v>Renew Item Validation</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <f>RenewTestCases!D3</f>
         <v>Incomplete</v>
       </c>
@@ -1051,7 +1060,7 @@
         <f>RenewTestCases!A13</f>
         <v>No More Renewals Validation</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="1" t="str">
         <f>RenewTestCases!D13</f>
         <v>Incomplete</v>
       </c>
@@ -1061,7 +1070,7 @@
         <f>RenewTestCases!A27</f>
         <v>Requested Item Renewal Validation</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="1" t="str">
         <f>RenewTestCases!D27</f>
         <v>Incomplete</v>
       </c>
@@ -1071,7 +1080,7 @@
         <f>OverDueTestCases!A3</f>
         <v>Overdue item fee &lt; item value</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="1" t="str">
         <f>OverDueTestCases!D3</f>
         <v>Incomplete</v>
       </c>
@@ -1081,9 +1090,9 @@
         <f>OverDueTestCases!A21</f>
         <v>Overdue item fee &gt; item value</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="1" t="str">
         <f>OverDueTestCases!D21</f>
-        <v>Incomplete</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="15">
@@ -1091,9 +1100,9 @@
         <f>OverDueTestCases!A40</f>
         <v>Paying overdue fines</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="1" t="str">
         <f>OverDueTestCases!D40</f>
-        <v>Incomplete</v>
+        <v>PASS</v>
       </c>
     </row>
   </sheetData>
@@ -1127,22 +1136,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="6"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="5"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1153,7 +1162,7 @@
       <c r="H3" s="10"/>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1.0</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1167,7 +1176,7 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2.0</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1180,7 +1189,7 @@
       <c r="I5" s="14"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3.0</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -1195,7 +1204,7 @@
       <c r="I6" s="14"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4.0</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -1209,7 +1218,7 @@
       <c r="I7" s="14"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5.0</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1224,7 +1233,7 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6.0</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -1238,7 +1247,7 @@
       <c r="I9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>7.0</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -1253,7 +1262,7 @@
       <c r="I10" s="14"/>
     </row>
     <row r="11">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>8.0</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -1268,7 +1277,7 @@
       <c r="I11" s="14"/>
     </row>
     <row r="12">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>9.0</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -1282,7 +1291,7 @@
       <c r="I12" s="14"/>
     </row>
     <row r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>10.0</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -1296,7 +1305,7 @@
       <c r="I13" s="14"/>
     </row>
     <row r="14">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>11.0</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -1310,7 +1319,7 @@
       <c r="I14" s="14"/>
     </row>
     <row r="15">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>12.0</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -1324,7 +1333,7 @@
       <c r="I15" s="14"/>
     </row>
     <row r="16">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>13.0</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -1338,7 +1347,7 @@
       <c r="I16" s="14"/>
     </row>
     <row r="17">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>14.0</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -1352,7 +1361,7 @@
       <c r="I17" s="14"/>
     </row>
     <row r="18">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>15.0</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -1374,10 +1383,10 @@
       <c r="I20" s="14"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
         <v>4</v>
       </c>
@@ -1387,7 +1396,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>1.0</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -1400,7 +1409,7 @@
       <c r="E22" s="16"/>
     </row>
     <row r="23">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>2.0</v>
       </c>
       <c r="B23" s="17" t="s">
@@ -1412,7 +1421,7 @@
       <c r="D23" s="12"/>
     </row>
     <row r="24">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>3.0</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -1424,7 +1433,7 @@
       <c r="D24" s="12"/>
     </row>
     <row r="25">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>4.0</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -1436,7 +1445,7 @@
       <c r="D25" s="12"/>
     </row>
     <row r="26">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>5.0</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -1448,7 +1457,7 @@
       <c r="D26" s="12"/>
     </row>
     <row r="27">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>6.0</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -1460,7 +1469,7 @@
       <c r="D27" s="12"/>
     </row>
     <row r="28">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>7.0</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -1472,7 +1481,7 @@
       <c r="D28" s="12"/>
     </row>
     <row r="29">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>8.0</v>
       </c>
       <c r="B29" s="17" t="s">
@@ -1484,7 +1493,7 @@
       <c r="D29" s="12"/>
     </row>
     <row r="30">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>9.0</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -1496,7 +1505,7 @@
       <c r="D30" s="12"/>
     </row>
     <row r="31">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>10.0</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -1508,7 +1517,7 @@
       <c r="D31" s="12"/>
     </row>
     <row r="32">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>11.0</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -1520,7 +1529,7 @@
       <c r="D32" s="12"/>
     </row>
     <row r="33">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>12.0</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -1532,7 +1541,7 @@
       <c r="D33" s="12"/>
     </row>
     <row r="34">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>13.0</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -1544,7 +1553,7 @@
       <c r="D34" s="12"/>
     </row>
     <row r="35">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>14.0</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -1556,7 +1565,7 @@
       <c r="D35" s="12"/>
     </row>
     <row r="36">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>15.0</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -1580,10 +1589,10 @@
       <c r="D38" s="20"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="5"/>
+      <c r="B39" s="4"/>
       <c r="C39" s="8" t="s">
         <v>4</v>
       </c>
@@ -1593,7 +1602,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>1.0</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -1605,7 +1614,7 @@
       <c r="D40" s="12"/>
     </row>
     <row r="41">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>2.0</v>
       </c>
       <c r="B41" s="17" t="s">
@@ -1617,7 +1626,7 @@
       <c r="D41" s="12"/>
     </row>
     <row r="42">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>3.0</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -1629,7 +1638,7 @@
       <c r="D42" s="12"/>
     </row>
     <row r="43">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>4.0</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -1692,22 +1701,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="6"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="5"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1717,7 +1726,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1.0</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1729,7 +1738,7 @@
       <c r="D4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2.0</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1741,7 +1750,7 @@
       <c r="D5" s="12"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3.0</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -1753,7 +1762,7 @@
       <c r="D6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4.0</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -1765,7 +1774,7 @@
       <c r="D7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5.0</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -1777,7 +1786,7 @@
       <c r="D8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6.0</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -1789,7 +1798,7 @@
       <c r="D9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>7.0</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -1801,7 +1810,7 @@
       <c r="D10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>8.0</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -1813,7 +1822,7 @@
       <c r="D11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>9.0</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -1825,7 +1834,7 @@
       <c r="D12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>10.0</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -1837,7 +1846,7 @@
       <c r="D13" s="12"/>
     </row>
     <row r="14">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>11.0</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -1849,7 +1858,7 @@
       <c r="D14" s="12"/>
     </row>
     <row r="15">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>12.0</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -1861,7 +1870,7 @@
       <c r="D15" s="12"/>
     </row>
     <row r="16">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>13.0</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -1873,7 +1882,7 @@
       <c r="D16" s="12"/>
     </row>
     <row r="17">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>14.0</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -1885,7 +1894,7 @@
       <c r="D17" s="12"/>
     </row>
     <row r="18">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>15.0</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -1897,7 +1906,7 @@
       <c r="D18" s="12"/>
     </row>
     <row r="19">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>16.0</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -1909,7 +1918,7 @@
       <c r="D19" s="12"/>
     </row>
     <row r="20">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>17.0</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -1921,20 +1930,20 @@
       <c r="D20" s="12"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="9" t="str">
         <f>if(or(D24="FAIL",D25="FAIL",D26="FAIL",D27="FAIL",D28="FAIL",D29="FAIL",D30="FAIL",D31="FAIL",D32="FAIL",D33="FAIL",D34="FAIL",D35="FAIL",D36="FAIL",D37="FAIL",D38="FAIL",D39="FAIL",D40="FAIL",D41="FAIL"),"FAIL",if(AND(D24="PASS",D25="PASS",D26="PASS",D27="PASS",D28="PASS",D29="PASS",D30="PASS",D31="PASS",D32="PASS",D33="PASS",D34="PASS",D35="PASS",D36="PASS",D37="PASS",D38="PASS",D39="PASS",D40="PASS",D41="PASS"),"PASS","Incomplete"))</f>
-        <v>Incomplete</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>1.0</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -1943,10 +1952,12 @@
       <c r="C24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>2.0</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -1955,10 +1966,12 @@
       <c r="C25" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>3.0</v>
       </c>
       <c r="B26" s="17" t="s">
@@ -1967,10 +1980,12 @@
       <c r="C26" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>4.0</v>
       </c>
       <c r="B27" s="17" t="s">
@@ -1982,7 +1997,7 @@
       <c r="D27" s="12"/>
     </row>
     <row r="28">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>5.0</v>
       </c>
       <c r="B28" s="17" t="s">
@@ -1994,7 +2009,7 @@
       <c r="D28" s="12"/>
     </row>
     <row r="29">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>6.0</v>
       </c>
       <c r="B29" s="17" t="s">
@@ -2006,7 +2021,7 @@
       <c r="D29" s="12"/>
     </row>
     <row r="30">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>7.0</v>
       </c>
       <c r="B30" s="17" t="s">
@@ -2018,7 +2033,7 @@
       <c r="D30" s="12"/>
     </row>
     <row r="31">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>8.0</v>
       </c>
       <c r="B31" s="17" t="s">
@@ -2030,7 +2045,7 @@
       <c r="D31" s="12"/>
     </row>
     <row r="32">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>9.0</v>
       </c>
       <c r="B32" s="17" t="s">
@@ -2042,7 +2057,7 @@
       <c r="D32" s="12"/>
     </row>
     <row r="33">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>10.0</v>
       </c>
       <c r="B33" s="17" t="s">
@@ -2054,7 +2069,7 @@
       <c r="D33" s="12"/>
     </row>
     <row r="34">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>11.0</v>
       </c>
       <c r="B34" s="17" t="s">
@@ -2066,7 +2081,7 @@
       <c r="D34" s="12"/>
     </row>
     <row r="35">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>12.0</v>
       </c>
       <c r="B35" s="17" t="s">
@@ -2078,7 +2093,7 @@
       <c r="D35" s="12"/>
     </row>
     <row r="36">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>13.0</v>
       </c>
       <c r="B36" s="17" t="s">
@@ -2090,19 +2105,19 @@
       <c r="D36" s="12"/>
     </row>
     <row r="37">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>14.0</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D37" s="12"/>
     </row>
     <row r="38">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>15.0</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -2114,7 +2129,7 @@
       <c r="D38" s="12"/>
     </row>
     <row r="39">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>16.0</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -2126,7 +2141,7 @@
       <c r="D39" s="12"/>
     </row>
     <row r="40">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>17.0</v>
       </c>
       <c r="B40" s="17" t="s">
@@ -2138,14 +2153,14 @@
       <c r="D40" s="12"/>
     </row>
     <row r="41">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>18.0</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D41" s="12"/>
     </row>
@@ -2162,10 +2177,10 @@
       <c r="D43" s="21"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="5"/>
+      <c r="A44" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="4"/>
       <c r="C44" s="8" t="s">
         <v>4</v>
       </c>
@@ -2175,7 +2190,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>1.0</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -2187,7 +2202,7 @@
       <c r="D45" s="12"/>
     </row>
     <row r="46">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>2.0</v>
       </c>
       <c r="B46" s="11" t="s">
@@ -2199,7 +2214,7 @@
       <c r="D46" s="12"/>
     </row>
     <row r="47">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>3.0</v>
       </c>
       <c r="B47" s="11" t="s">
@@ -2211,19 +2226,19 @@
       <c r="D47" s="12"/>
     </row>
     <row r="48">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>4.0</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D48" s="12"/>
     </row>
     <row r="49">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>5.0</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -2235,7 +2250,7 @@
       <c r="D49" s="12"/>
     </row>
     <row r="50">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>6.0</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -2247,14 +2262,14 @@
       <c r="D50" s="12"/>
     </row>
     <row r="51">
-      <c r="A51" s="6">
+      <c r="A51" s="5">
         <v>7.0</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D51" s="12"/>
     </row>
@@ -2301,32 +2316,32 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+      <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="6"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="5"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="5"/>
+      <c r="A3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="9" t="str">
         <f>if(or(D4="FAIL",D5="FAIL",D6="FAIL",D7="FAIL",D8="FAIL",D9="FAIL",D10="FAIL"),"FAIL",if(AND(D4="PASS",D5="PASS",D6="PASS",D7="PASS",D8="PASS",D9="PASS",D10="PASS"),"PASS","Incomplete"))</f>
-        <v>Incomplete</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1.0</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -2335,79 +2350,93 @@
       <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="22" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2.0</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="22" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3.0</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4.0</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="12"/>
+      <c r="B7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5.0</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="12"/>
+      <c r="B8" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6.0</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="12"/>
+      <c r="B9" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>7.0</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="12"/>
+      <c r="B10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2450,22 +2479,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+      <c r="A1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="6"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="5"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="5"/>
+      <c r="A3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2475,7 +2504,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1.0</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -2487,11 +2516,11 @@
       <c r="D4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2.0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>8</v>
@@ -2499,7 +2528,7 @@
       <c r="D5" s="12"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3.0</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -2511,23 +2540,23 @@
       <c r="D6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4.0</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5.0</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>39</v>
@@ -2535,7 +2564,7 @@
       <c r="D8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6.0</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -2547,19 +2576,19 @@
       <c r="D9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>7.0</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>80</v>
+      <c r="B10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>8.0</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -2571,11 +2600,11 @@
       <c r="D11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>9.0</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>8</v>
@@ -2583,26 +2612,26 @@
       <c r="D12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>10.0</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6">
-        <v>11.0</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>80</v>
+      <c r="C14" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D14" s="12"/>
     </row>
@@ -2646,18 +2675,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+      <c r="A1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="5"/>
+      <c r="A3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2667,7 +2696,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1.0</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -2679,82 +2708,82 @@
       <c r="D4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2.0</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3.0</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4.0</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>74</v>
+      <c r="B7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5.0</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>99</v>
+      <c r="B8" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6.0</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>100</v>
+      <c r="B9" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>102</v>
       </c>
       <c r="D9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>7.0</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>80</v>
+      <c r="B10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="5"/>
+      <c r="A13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="8" t="s">
         <v>4</v>
       </c>
@@ -2764,7 +2793,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>1.0</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -2776,130 +2805,130 @@
       <c r="D14" s="12"/>
     </row>
     <row r="15">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>2.0</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>3.0</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D16" s="12"/>
     </row>
     <row r="17">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>4.0</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="C20" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="C21" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>102</v>
+      <c r="C22" s="23" t="s">
+        <v>104</v>
       </c>
       <c r="D22" s="12"/>
     </row>
     <row r="23">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>10.0</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>104</v>
+      <c r="B23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="D23" s="12"/>
     </row>
     <row r="24">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>11.0</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>80</v>
+      <c r="B24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D24" s="12"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="5"/>
+      <c r="A27" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="4"/>
       <c r="C27" s="8" t="s">
         <v>4</v>
       </c>
@@ -2909,7 +2938,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>1.0</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -2921,11 +2950,11 @@
       <c r="D28" s="12"/>
     </row>
     <row r="29">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>2.0</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>8</v>
@@ -2933,62 +2962,62 @@
       <c r="D29" s="12"/>
     </row>
     <row r="30">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>3.0</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D30" s="12"/>
     </row>
     <row r="31">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>4.0</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>110</v>
+      <c r="B31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D31" s="12"/>
     </row>
     <row r="32">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>5.0</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>112</v>
+      <c r="B32" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="D32" s="12"/>
     </row>
     <row r="33">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>6.0</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="12"/>
     </row>
     <row r="34">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>7.0</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>80</v>
+      <c r="B34" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D34" s="12"/>
     </row>
@@ -3034,18 +3063,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+      <c r="A1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="A3" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="9" t="str">
@@ -3054,67 +3083,67 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1.0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="25"/>
+        <v>119</v>
+      </c>
+      <c r="D4" s="26"/>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2.0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="25"/>
+        <v>121</v>
+      </c>
+      <c r="D5" s="26"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3.0</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="25"/>
+        <v>123</v>
+      </c>
+      <c r="D6" s="26"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4.0</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="25"/>
+        <v>125</v>
+      </c>
+      <c r="D7" s="26"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5.0</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="D8" s="26"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6.0</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -3123,106 +3152,106 @@
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>7.0</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>8.0</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="25"/>
+        <v>130</v>
+      </c>
+      <c r="D11" s="26"/>
     </row>
     <row r="12">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>9.0</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="25"/>
+        <v>74</v>
+      </c>
+      <c r="D12" s="26"/>
     </row>
     <row r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>10.0</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>129</v>
+      <c r="B13" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="25"/>
+        <v>76</v>
+      </c>
+      <c r="D13" s="26"/>
     </row>
     <row r="14">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>11.0</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>75</v>
+      <c r="B14" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="25"/>
+        <v>78</v>
+      </c>
+      <c r="D14" s="26"/>
     </row>
     <row r="15">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>12.0</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>130</v>
+      <c r="B15" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="25"/>
+        <v>133</v>
+      </c>
+      <c r="D15" s="26"/>
     </row>
     <row r="16">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>13.0</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="25"/>
+      <c r="B16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="26"/>
     </row>
     <row r="17">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>14.0</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="25"/>
+      <c r="B17" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="26"/>
     </row>
     <row r="18">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>15.0</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -3231,94 +3260,100 @@
       <c r="C18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="25"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="21">
-      <c r="A21" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="24" t="s">
+      <c r="A21" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="9" t="str">
         <f>if(or(D22="FAIL",D23="FAIL",D24="FAIL",D25="FAIL",D26="FAIL",D27="FAIL",D28="FAIL",D29="FAIL",D30="FAIL",D31="FAIL",D32="FAIL",D33="FAIL",D34="FAIL",D35="FAIL",D36="FAIL",D37="FAIL"),"FAIL",if(AND(D22="PASS",D23="PASS",D24="PASS",D25="PASS",D26="PASS",D27="PASS",D28="PASS",D29="PASS",D30="PASS",D31="PASS",D32="PASS",D33="PASS",D34="PASS",D35="PASS",D36="PASS",D37="PASS"),"PASS","Incomplete"))</f>
-        <v>Incomplete</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>1.0</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="25"/>
+        <v>119</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>2.0</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="25"/>
+        <v>121</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>3.0</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="25"/>
+        <v>123</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>4.0</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="25"/>
+        <v>141</v>
+      </c>
+      <c r="D25" s="26"/>
     </row>
     <row r="26">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>5.0</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="25"/>
+        <v>143</v>
+      </c>
+      <c r="D26" s="26"/>
     </row>
     <row r="27">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>6.0</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="D27" s="26"/>
     </row>
     <row r="28">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>7.0</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -3327,106 +3362,106 @@
       <c r="C28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="25"/>
+      <c r="D28" s="26"/>
     </row>
     <row r="29">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>8.0</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="25"/>
+      <c r="D29" s="26"/>
     </row>
     <row r="30">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>9.0</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="25"/>
+        <v>130</v>
+      </c>
+      <c r="D30" s="26"/>
     </row>
     <row r="31">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>10.0</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="25"/>
+        <v>74</v>
+      </c>
+      <c r="D31" s="26"/>
     </row>
     <row r="32">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>11.0</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>73</v>
+      <c r="B32" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="25"/>
+        <v>76</v>
+      </c>
+      <c r="D32" s="26"/>
     </row>
     <row r="33">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>12.0</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>75</v>
+      <c r="B33" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="25"/>
+        <v>78</v>
+      </c>
+      <c r="D33" s="26"/>
     </row>
     <row r="34">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>13.0</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>130</v>
+      <c r="B34" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="25"/>
+        <v>133</v>
+      </c>
+      <c r="D34" s="26"/>
     </row>
     <row r="35">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>14.0</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="25"/>
+      <c r="B35" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="26"/>
     </row>
     <row r="36">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>15.0</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36" s="25"/>
+      <c r="B36" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="26"/>
     </row>
     <row r="37">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>16.0</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -3437,19 +3472,19 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="24" t="s">
+      <c r="A40" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="9" t="str">
         <f>if(or(D41="FAIL",D42="FAIL",D43="FAIL",D44="FAIL",D45="FAIL",D46="FAIL",D47="FAIL"),"FAIL",if(AND(D41="PASS",D42="PASS",D43="PASS",D44="PASS",D45="PASS",D46="PASS",D47="PASS"),"PASS","Incomplete"))</f>
-        <v>Incomplete</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>1.0</v>
       </c>
       <c r="B41" s="11" t="s">
@@ -3458,70 +3493,82 @@
       <c r="C41" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="25"/>
+      <c r="D41" s="26" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>2.0</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="25"/>
+      <c r="D42" s="26" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>3.0</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D43" s="25"/>
+        <v>149</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>4.0</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" s="25"/>
+        <v>151</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>5.0</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="25"/>
+      <c r="D45" s="26" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>6.0</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D46" s="25"/>
+        <v>154</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>7.0</v>
       </c>
       <c r="B47" s="11" t="s">
@@ -3530,7 +3577,9 @@
       <c r="C47" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="25"/>
+      <c r="D47" s="26" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
